--- a/Back-End/Results_Allocation.xlsx
+++ b/Back-End/Results_Allocation.xlsx
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>7796495360</v>
+        <v>4287023695</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1672,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="2">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2134,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2288,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2344,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2484,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="D151" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2540,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2568,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="2">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3016,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3072,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3086,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3170,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3184,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="2">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3226,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3240,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3324,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3338,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3352,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="D214" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3422,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3450,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3464,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3534,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3548,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3576,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="D229" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3590,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3604,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3618,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="2">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3702,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="D238" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3716,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="D239" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3730,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3772,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="D243" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3786,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3800,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="D245" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="D247" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3884,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="D251" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="D252" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3926,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="D267" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4150,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="D270" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4374,7 +4374,7 @@
         <v>4</v>
       </c>
       <c r="D286" s="2">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4402,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4444,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="D291" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="D300" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4682,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="D308" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="2">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4766,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="D314" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5032,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="D333" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5102,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="D338" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5172,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="D343" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5242,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="D348" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5536,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5550,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5606,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="D374" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="D401" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6012,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="D403" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="D405" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6362,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6516,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="D439" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6600,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="D445" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6782,7 +6782,7 @@
         <v>4</v>
       </c>
       <c r="D458" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6866,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="D464" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6880,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="D465" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7076,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="D479" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="D483" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7216,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7286,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7328,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="D497" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7384,7 +7384,7 @@
         <v>4</v>
       </c>
       <c r="D501" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7496,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="D509" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7524,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="D511" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7762,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="D528" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7818,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="D532" s="2">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7846,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="D534" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7860,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="D535" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7888,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="D537" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7916,7 +7916,7 @@
         <v>4</v>
       </c>
       <c r="D539" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -8000,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="D545" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8014,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="D546" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="D547" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8045,7 +8045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7796495360</v>
+        <v>4287023695</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -8109,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -8120,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -8175,20 +8175,20 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>434</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>434</v>
+        <v>265</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>524</v>
+        <v>303</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -8241,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>526</v>
+        <v>305</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -8263,20 +8263,20 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
+        <v>526</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
         <v>528</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -8296,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -8307,7 +8307,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -8318,7 +8318,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -8329,7 +8329,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="2">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -8340,7 +8340,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -8351,32 +8351,32 @@
         <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>540</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>215</v>
+        <v>541</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2">
-        <v>223</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8384,7 +8384,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -8395,7 +8395,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -8406,7 +8406,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="2">
-        <v>403</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>412</v>
+        <v>223</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -8439,7 +8439,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>426</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -8450,7 +8450,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="2">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -8461,7 +8461,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -8472,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>478</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -8483,7 +8483,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -8494,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="2">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -8505,7 +8505,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -8516,7 +8516,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -8538,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -8549,7 +8549,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -8560,7 +8560,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -8571,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -8582,7 +8582,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -8593,7 +8593,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -8604,7 +8604,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="2">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -8626,31 +8626,31 @@
         <v>17</v>
       </c>
       <c r="B58" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
+        <v>533</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>18</v>
-      </c>
-      <c r="B61" s="2">
-        <v>451</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="2">
-        <v>453</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -8670,7 +8670,7 @@
         <v>18</v>
       </c>
       <c r="B63" s="2">
-        <v>455</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -8681,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -8692,7 +8692,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -8703,7 +8703,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -8714,7 +8714,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -8725,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -8736,7 +8736,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
@@ -8747,7 +8747,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -8769,7 +8769,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -8780,7 +8780,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>10</v>
@@ -8791,7 +8791,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -8802,7 +8802,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -8813,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -8824,7 +8824,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -8835,7 +8835,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -8846,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
@@ -8868,7 +8868,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
@@ -8879,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="2">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -8890,20 +8890,20 @@
         <v>18</v>
       </c>
       <c r="B83" s="2">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
-        <v>20</v>
-      </c>
-      <c r="B85" s="2">
-        <v>420</v>
-      </c>
-      <c r="C85" s="2" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>18</v>
+      </c>
+      <c r="B84" s="2">
+        <v>489</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -8923,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="B87" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>10</v>
@@ -8934,7 +8934,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>10</v>
@@ -8945,7 +8945,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>10</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -8967,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="B91" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -8978,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="B93" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -9000,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -9011,7 +9011,7 @@
         <v>20</v>
       </c>
       <c r="B95" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -9022,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -9033,7 +9033,7 @@
         <v>20</v>
       </c>
       <c r="B97" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -9044,7 +9044,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -9055,7 +9055,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -9066,7 +9066,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -9132,7 +9132,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
@@ -9143,7 +9143,7 @@
         <v>20</v>
       </c>
       <c r="B107" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -9154,20 +9154,20 @@
         <v>20</v>
       </c>
       <c r="B108" s="2">
+        <v>486</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2">
         <v>517</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2">
-        <v>21</v>
-      </c>
-      <c r="B110" s="2">
-        <v>287</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="2">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -9187,7 +9187,7 @@
         <v>21</v>
       </c>
       <c r="B112" s="2">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -9198,7 +9198,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
@@ -9209,7 +9209,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -9220,7 +9220,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -9231,7 +9231,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -9242,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
@@ -9253,7 +9253,7 @@
         <v>21</v>
       </c>
       <c r="B118" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
@@ -9264,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -9275,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="B120" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
@@ -9297,7 +9297,7 @@
         <v>21</v>
       </c>
       <c r="B122" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -9308,7 +9308,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -9319,7 +9319,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
@@ -9330,7 +9330,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -9352,7 +9352,7 @@
         <v>21</v>
       </c>
       <c r="B127" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
@@ -9363,7 +9363,7 @@
         <v>21</v>
       </c>
       <c r="B128" s="2">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
@@ -9374,7 +9374,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
@@ -9385,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -9396,7 +9396,7 @@
         <v>21</v>
       </c>
       <c r="B131" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -9407,7 +9407,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -9418,7 +9418,7 @@
         <v>21</v>
       </c>
       <c r="B133" s="2">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -9429,7 +9429,7 @@
         <v>21</v>
       </c>
       <c r="B134" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -9440,20 +9440,20 @@
         <v>21</v>
       </c>
       <c r="B135" s="2">
+        <v>499</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>21</v>
+      </c>
+      <c r="B136" s="2">
         <v>514</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2">
-        <v>22</v>
-      </c>
-      <c r="B137" s="2">
-        <v>195</v>
-      </c>
-      <c r="C137" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9462,7 +9462,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -9473,7 +9473,7 @@
         <v>22</v>
       </c>
       <c r="B139" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
@@ -9484,7 +9484,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>10</v>
@@ -9495,7 +9495,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="2">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -9506,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -9517,7 +9517,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
@@ -9539,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B145" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
@@ -9550,7 +9550,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
@@ -9561,7 +9561,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -9572,7 +9572,7 @@
         <v>22</v>
       </c>
       <c r="B148" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -9583,7 +9583,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -9594,7 +9594,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>10</v>
@@ -9605,7 +9605,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -9616,7 +9616,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>10</v>
@@ -9627,7 +9627,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>10</v>
@@ -9638,7 +9638,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -9649,7 +9649,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
@@ -9660,7 +9660,7 @@
         <v>22</v>
       </c>
       <c r="B156" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -9671,7 +9671,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -9682,7 +9682,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -9693,7 +9693,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>10</v>
@@ -9704,7 +9704,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>10</v>
@@ -9715,7 +9715,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -9726,7 +9726,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
@@ -9737,20 +9737,20 @@
         <v>22</v>
       </c>
       <c r="B163" s="2">
+        <v>401</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>22</v>
+      </c>
+      <c r="B164" s="2">
         <v>494</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2">
-        <v>23</v>
-      </c>
-      <c r="B165" s="2">
-        <v>348</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
         <v>23</v>
       </c>
       <c r="B166" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>10</v>
@@ -9770,7 +9770,7 @@
         <v>23</v>
       </c>
       <c r="B167" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>10</v>
@@ -9781,7 +9781,7 @@
         <v>23</v>
       </c>
       <c r="B168" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>10</v>
@@ -9792,7 +9792,7 @@
         <v>23</v>
       </c>
       <c r="B169" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -9803,7 +9803,7 @@
         <v>23</v>
       </c>
       <c r="B170" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -9814,7 +9814,7 @@
         <v>23</v>
       </c>
       <c r="B171" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>10</v>
@@ -9825,7 +9825,7 @@
         <v>23</v>
       </c>
       <c r="B172" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>10</v>
@@ -9836,7 +9836,7 @@
         <v>23</v>
       </c>
       <c r="B173" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>10</v>
@@ -9858,7 +9858,7 @@
         <v>23</v>
       </c>
       <c r="B175" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>
@@ -9869,7 +9869,7 @@
         <v>23</v>
       </c>
       <c r="B176" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>10</v>
@@ -9880,7 +9880,7 @@
         <v>23</v>
       </c>
       <c r="B177" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>10</v>
@@ -9891,7 +9891,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>10</v>
@@ -9902,7 +9902,7 @@
         <v>23</v>
       </c>
       <c r="B179" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>10</v>
@@ -9913,7 +9913,7 @@
         <v>23</v>
       </c>
       <c r="B180" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>10</v>
@@ -9924,7 +9924,7 @@
         <v>23</v>
       </c>
       <c r="B181" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>10</v>
@@ -9935,7 +9935,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
@@ -9946,7 +9946,7 @@
         <v>23</v>
       </c>
       <c r="B183" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>10</v>
@@ -9957,7 +9957,7 @@
         <v>23</v>
       </c>
       <c r="B184" s="2">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -9968,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="B185" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
@@ -9979,7 +9979,7 @@
         <v>23</v>
       </c>
       <c r="B186" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>10</v>
@@ -9990,7 +9990,7 @@
         <v>23</v>
       </c>
       <c r="B187" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>10</v>
@@ -10001,20 +10001,20 @@
         <v>23</v>
       </c>
       <c r="B188" s="2">
+        <v>419</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>23</v>
+      </c>
+      <c r="B189" s="2">
         <v>510</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
-        <v>24</v>
-      </c>
-      <c r="B190" s="2">
-        <v>246</v>
-      </c>
-      <c r="C190" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
         <v>24</v>
       </c>
       <c r="B191" s="2">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>10</v>
@@ -10034,7 +10034,7 @@
         <v>24</v>
       </c>
       <c r="B192" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>10</v>
@@ -10045,7 +10045,7 @@
         <v>24</v>
       </c>
       <c r="B193" s="2">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>10</v>
@@ -10056,7 +10056,7 @@
         <v>24</v>
       </c>
       <c r="B194" s="2">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>10</v>
@@ -10067,7 +10067,7 @@
         <v>24</v>
       </c>
       <c r="B195" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -10078,7 +10078,7 @@
         <v>24</v>
       </c>
       <c r="B196" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
@@ -10089,7 +10089,7 @@
         <v>24</v>
       </c>
       <c r="B197" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -10100,7 +10100,7 @@
         <v>24</v>
       </c>
       <c r="B198" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -10111,7 +10111,7 @@
         <v>24</v>
       </c>
       <c r="B199" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
@@ -10122,7 +10122,7 @@
         <v>24</v>
       </c>
       <c r="B200" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -10133,7 +10133,7 @@
         <v>24</v>
       </c>
       <c r="B201" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -10144,7 +10144,7 @@
         <v>24</v>
       </c>
       <c r="B202" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -10155,7 +10155,7 @@
         <v>24</v>
       </c>
       <c r="B203" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -10166,7 +10166,7 @@
         <v>24</v>
       </c>
       <c r="B204" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -10177,7 +10177,7 @@
         <v>24</v>
       </c>
       <c r="B205" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -10188,7 +10188,7 @@
         <v>24</v>
       </c>
       <c r="B206" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -10199,7 +10199,7 @@
         <v>24</v>
       </c>
       <c r="B207" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -10210,7 +10210,7 @@
         <v>24</v>
       </c>
       <c r="B208" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -10221,7 +10221,7 @@
         <v>24</v>
       </c>
       <c r="B209" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -10232,7 +10232,7 @@
         <v>24</v>
       </c>
       <c r="B210" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -10243,7 +10243,7 @@
         <v>24</v>
       </c>
       <c r="B211" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -10254,7 +10254,7 @@
         <v>24</v>
       </c>
       <c r="B212" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -10309,7 +10309,7 @@
         <v>25</v>
       </c>
       <c r="B218" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -10320,7 +10320,7 @@
         <v>25</v>
       </c>
       <c r="B219" s="2">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -10331,7 +10331,7 @@
         <v>25</v>
       </c>
       <c r="B220" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
@@ -10342,7 +10342,7 @@
         <v>25</v>
       </c>
       <c r="B221" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
@@ -10353,7 +10353,7 @@
         <v>25</v>
       </c>
       <c r="B222" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -10364,7 +10364,7 @@
         <v>25</v>
       </c>
       <c r="B223" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -10375,7 +10375,7 @@
         <v>25</v>
       </c>
       <c r="B224" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -10562,20 +10562,20 @@
         <v>25</v>
       </c>
       <c r="B241" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="2">
-        <v>25</v>
-      </c>
-      <c r="B242" s="2">
-        <v>535</v>
-      </c>
-      <c r="C242" s="2" t="s">
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>27</v>
+      </c>
+      <c r="B243" s="2">
+        <v>234</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
         <v>27</v>
       </c>
       <c r="B244" s="2">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -10595,7 +10595,7 @@
         <v>27</v>
       </c>
       <c r="B245" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -10606,7 +10606,7 @@
         <v>27</v>
       </c>
       <c r="B246" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>10</v>
@@ -10617,7 +10617,7 @@
         <v>27</v>
       </c>
       <c r="B247" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
@@ -10628,7 +10628,7 @@
         <v>27</v>
       </c>
       <c r="B248" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -10639,7 +10639,7 @@
         <v>27</v>
       </c>
       <c r="B249" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -10650,7 +10650,7 @@
         <v>27</v>
       </c>
       <c r="B250" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -10661,7 +10661,7 @@
         <v>27</v>
       </c>
       <c r="B251" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -10672,7 +10672,7 @@
         <v>27</v>
       </c>
       <c r="B252" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
@@ -10683,7 +10683,7 @@
         <v>27</v>
       </c>
       <c r="B253" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
@@ -10694,7 +10694,7 @@
         <v>27</v>
       </c>
       <c r="B254" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>27</v>
       </c>
       <c r="B255" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="B256" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -10727,7 +10727,7 @@
         <v>27</v>
       </c>
       <c r="B257" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -10738,7 +10738,7 @@
         <v>27</v>
       </c>
       <c r="B258" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
@@ -10749,7 +10749,7 @@
         <v>27</v>
       </c>
       <c r="B259" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>10</v>
@@ -10760,7 +10760,7 @@
         <v>27</v>
       </c>
       <c r="B260" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>10</v>
@@ -10771,7 +10771,7 @@
         <v>27</v>
       </c>
       <c r="B261" s="2">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
@@ -10782,7 +10782,7 @@
         <v>27</v>
       </c>
       <c r="B262" s="2">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
@@ -10793,7 +10793,7 @@
         <v>27</v>
       </c>
       <c r="B263" s="2">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>10</v>
@@ -10804,7 +10804,7 @@
         <v>27</v>
       </c>
       <c r="B264" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>10</v>
@@ -10815,7 +10815,7 @@
         <v>27</v>
       </c>
       <c r="B265" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>10</v>
@@ -10826,7 +10826,7 @@
         <v>27</v>
       </c>
       <c r="B266" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>10</v>
@@ -10837,20 +10837,20 @@
         <v>27</v>
       </c>
       <c r="B267" s="2">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="2">
-        <v>27</v>
-      </c>
-      <c r="B268" s="2">
-        <v>536</v>
-      </c>
-      <c r="C268" s="2" t="s">
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>28</v>
+      </c>
+      <c r="B269" s="2">
+        <v>243</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
         <v>28</v>
       </c>
       <c r="B270" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>10</v>
@@ -10870,7 +10870,7 @@
         <v>28</v>
       </c>
       <c r="B271" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>10</v>
@@ -10881,7 +10881,7 @@
         <v>28</v>
       </c>
       <c r="B272" s="2">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>10</v>
@@ -10892,7 +10892,7 @@
         <v>28</v>
       </c>
       <c r="B273" s="2">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>10</v>
@@ -10903,7 +10903,7 @@
         <v>28</v>
       </c>
       <c r="B274" s="2">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>10</v>
@@ -10914,7 +10914,7 @@
         <v>28</v>
       </c>
       <c r="B275" s="2">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>10</v>
@@ -10925,7 +10925,7 @@
         <v>28</v>
       </c>
       <c r="B276" s="2">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>10</v>
@@ -10936,7 +10936,7 @@
         <v>28</v>
       </c>
       <c r="B277" s="2">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>10</v>
@@ -10947,7 +10947,7 @@
         <v>28</v>
       </c>
       <c r="B278" s="2">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>10</v>
@@ -10958,7 +10958,7 @@
         <v>28</v>
       </c>
       <c r="B279" s="2">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>10</v>
@@ -10969,7 +10969,7 @@
         <v>28</v>
       </c>
       <c r="B280" s="2">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>10</v>
@@ -10980,7 +10980,7 @@
         <v>28</v>
       </c>
       <c r="B281" s="2">
-        <v>238</v>
+        <v>396</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>10</v>
@@ -10991,7 +10991,7 @@
         <v>28</v>
       </c>
       <c r="B282" s="2">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>10</v>
@@ -11002,7 +11002,7 @@
         <v>28</v>
       </c>
       <c r="B283" s="2">
-        <v>243</v>
+        <v>496</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>10</v>
@@ -11013,7 +11013,7 @@
         <v>28</v>
       </c>
       <c r="B284" s="2">
-        <v>245</v>
+        <v>531</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>10</v>
@@ -11024,117 +11024,106 @@
         <v>28</v>
       </c>
       <c r="B285" s="2">
-        <v>247</v>
+        <v>534</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="2">
-        <v>28</v>
-      </c>
-      <c r="B286" s="2">
-        <v>248</v>
-      </c>
-      <c r="C286" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B287" s="2">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B288" s="2">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B289" s="2">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B290" s="2">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B291" s="2">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B292" s="2">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B293" s="2">
-        <v>531</v>
+        <v>241</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="2">
-        <v>29</v>
-      </c>
-      <c r="B295" s="2">
-        <v>208</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>31</v>
+      </c>
+      <c r="B294" s="2">
+        <v>538</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B296" s="2">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>10</v>
@@ -11142,10 +11131,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B297" s="2">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>10</v>
@@ -11153,10 +11142,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B298" s="2">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>10</v>
@@ -11164,10 +11153,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B299" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>10</v>
@@ -11175,10 +11164,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B300" s="2">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>10</v>
@@ -11186,10 +11175,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B301" s="2">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>10</v>
@@ -11197,10 +11186,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B302" s="2">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>10</v>
@@ -11208,10 +11197,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B303" s="2">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>10</v>
@@ -11219,10 +11208,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B304" s="2">
-        <v>365</v>
+        <v>158</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>10</v>
@@ -11230,10 +11219,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B305" s="2">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>10</v>
@@ -11241,10 +11230,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B306" s="2">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>10</v>
@@ -11252,10 +11241,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B307" s="2">
-        <v>400</v>
+        <v>169</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>10</v>
@@ -11263,10 +11252,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B308" s="2">
-        <v>496</v>
+        <v>170</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>10</v>
@@ -11274,101 +11263,123 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B309" s="2">
-        <v>534</v>
+        <v>179</v>
       </c>
       <c r="C309" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>32</v>
+      </c>
+      <c r="B310" s="2">
+        <v>180</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B311" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B312" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B313" s="2">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B314" s="2">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B315" s="2">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B316" s="2">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B317" s="2">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B318" s="2">
-        <v>538</v>
+        <v>392</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>32</v>
+      </c>
+      <c r="B319" s="2">
+        <v>478</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -11376,29 +11387,18 @@
         <v>32</v>
       </c>
       <c r="B320" s="2">
-        <v>104</v>
+        <v>532</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="2">
-        <v>32</v>
-      </c>
-      <c r="B321" s="2">
-        <v>115</v>
-      </c>
-      <c r="C321" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B322" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>10</v>
@@ -11406,10 +11406,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B323" s="2">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>10</v>
@@ -11417,10 +11417,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B324" s="2">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>10</v>
@@ -11428,10 +11428,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B325" s="2">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>10</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B326" s="2">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>10</v>
@@ -11450,10 +11450,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B327" s="2">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>10</v>
@@ -11461,10 +11461,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B328" s="2">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>10</v>
@@ -11472,10 +11472,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B329" s="2">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>10</v>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B330" s="2">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>10</v>
@@ -11494,10 +11494,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B331" s="2">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>10</v>
@@ -11505,10 +11505,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B332" s="2">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>10</v>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B333" s="2">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>10</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B334" s="2">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>10</v>
@@ -11538,10 +11538,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B335" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>10</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B336" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>10</v>
@@ -11560,10 +11560,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B337" s="2">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>10</v>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B338" s="2">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>10</v>
@@ -11582,10 +11582,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B339" s="2">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>10</v>
@@ -11593,10 +11593,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B340" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>10</v>
@@ -11604,10 +11604,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B341" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>10</v>
@@ -11615,10 +11615,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B342" s="2">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>10</v>
@@ -11626,10 +11626,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B343" s="2">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>10</v>
@@ -11637,12 +11637,23 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B344" s="2">
-        <v>492</v>
+        <v>286</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>33</v>
+      </c>
+      <c r="B345" s="2">
+        <v>504</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11651,29 +11662,18 @@
         <v>33</v>
       </c>
       <c r="B346" s="2">
-        <v>85</v>
+        <v>521</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="2">
-        <v>33</v>
-      </c>
-      <c r="B347" s="2">
-        <v>102</v>
-      </c>
-      <c r="C347" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B348" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>10</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B349" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>10</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B350" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>10</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B351" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>10</v>
@@ -11714,10 +11714,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B352" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>10</v>
@@ -11725,10 +11725,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B353" s="2">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>10</v>
@@ -11736,10 +11736,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B354" s="2">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>10</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B355" s="2">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>10</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B356" s="2">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>10</v>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B357" s="2">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>10</v>
@@ -11780,10 +11780,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B358" s="2">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>10</v>
@@ -11791,10 +11791,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B359" s="2">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>10</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B360" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>10</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B361" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>10</v>
@@ -11824,10 +11824,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B362" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>10</v>
@@ -11835,10 +11835,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B363" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>10</v>
@@ -11846,10 +11846,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B364" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>10</v>
@@ -11857,10 +11857,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B365" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>10</v>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B366" s="2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>10</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B367" s="2">
-        <v>202</v>
+        <v>453</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>10</v>
@@ -11890,10 +11890,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B368" s="2">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>10</v>
@@ -11901,32 +11901,32 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B369" s="2">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="2">
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
         <v>35</v>
       </c>
-      <c r="B371" s="2">
-        <v>72</v>
-      </c>
-      <c r="C371" s="2" t="s">
+      <c r="B370" s="2">
+        <v>506</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B372" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>10</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B373" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>10</v>
@@ -11945,10 +11945,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B374" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>10</v>
@@ -11956,10 +11956,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B375" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>10</v>
@@ -11967,10 +11967,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B376" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>10</v>
@@ -11978,10 +11978,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B377" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>10</v>
@@ -11989,10 +11989,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B378" s="2">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>10</v>
@@ -12000,10 +12000,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B379" s="2">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>10</v>
@@ -12011,10 +12011,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B380" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>10</v>
@@ -12022,10 +12022,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B381" s="2">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>10</v>
@@ -12033,10 +12033,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B382" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>10</v>
@@ -12044,10 +12044,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B383" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>10</v>
@@ -12055,10 +12055,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B384" s="2">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>10</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B385" s="2">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>10</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B386" s="2">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>10</v>
@@ -12088,10 +12088,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B387" s="2">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>10</v>
@@ -12099,10 +12099,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B388" s="2">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>10</v>
@@ -12110,10 +12110,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B389" s="2">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>10</v>
@@ -12121,10 +12121,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B390" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>10</v>
@@ -12132,10 +12132,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B391" s="2">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>10</v>
@@ -12143,10 +12143,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B392" s="2">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>10</v>
@@ -12154,10 +12154,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B393" s="2">
-        <v>230</v>
+        <v>522</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>10</v>
@@ -12165,263 +12165,252 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B395" s="2">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B396" s="2">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B397" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B398" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B399" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B400" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B401" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B402" s="2">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B403" s="2">
-        <v>110</v>
+        <v>523</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B404" s="2">
-        <v>111</v>
+        <v>542</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" s="2">
-        <v>36</v>
-      </c>
-      <c r="B405" s="2">
-        <v>146</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B406" s="2">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B407" s="2">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B408" s="2">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B409" s="2">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B410" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B411" s="2">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B412" s="2">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B413" s="2">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="2">
-        <v>36</v>
-      </c>
-      <c r="B414" s="2">
-        <v>280</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B415" s="2">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B416" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B417" s="2">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>48</v>
+      </c>
+      <c r="B418" s="2">
+        <v>52</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B419" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
@@ -12429,10 +12418,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B420" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
@@ -12440,255 +12429,277 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B421" s="2">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="A422" s="2">
-        <v>46</v>
-      </c>
-      <c r="B422" s="2">
-        <v>133</v>
-      </c>
-      <c r="C422" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B423" s="2">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B424" s="2">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B425" s="2">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B426" s="2">
-        <v>529</v>
+        <v>110</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>50</v>
+      </c>
+      <c r="B427" s="2">
+        <v>111</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B428" s="2">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B429" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B430" s="2">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B431" s="2">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B432" s="2">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B433" s="2">
-        <v>429</v>
+        <v>188</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B434" s="2">
-        <v>530</v>
+        <v>194</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B435" s="2">
-        <v>540</v>
+        <v>195</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B436" s="2">
-        <v>541</v>
+        <v>198</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B437" s="2">
-        <v>542</v>
+        <v>199</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>50</v>
+      </c>
+      <c r="B438" s="2">
+        <v>200</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B439" s="2">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B440" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B441" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B442" s="2">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B443" s="2">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B444" s="2">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B445" s="2">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>50</v>
+      </c>
+      <c r="B446" s="2">
+        <v>440</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -12696,10 +12707,10 @@
         <v>50</v>
       </c>
       <c r="B447" s="2">
-        <v>5</v>
+        <v>460</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -13290,7 +13301,7 @@
         <v>76</v>
       </c>
       <c r="B506" s="2">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>9</v>
@@ -13301,7 +13312,7 @@
         <v>76</v>
       </c>
       <c r="B507" s="2">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>9</v>
@@ -13312,7 +13323,7 @@
         <v>76</v>
       </c>
       <c r="B508" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
@@ -13323,7 +13334,7 @@
         <v>76</v>
       </c>
       <c r="B509" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
@@ -13334,7 +13345,7 @@
         <v>76</v>
       </c>
       <c r="B510" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -13345,7 +13356,7 @@
         <v>76</v>
       </c>
       <c r="B511" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
@@ -13356,7 +13367,7 @@
         <v>76</v>
       </c>
       <c r="B512" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -13367,20 +13378,20 @@
         <v>76</v>
       </c>
       <c r="B513" s="2">
+        <v>256</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>76</v>
+      </c>
+      <c r="B514" s="2">
         <v>539</v>
       </c>
-      <c r="C513" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="2">
-        <v>77</v>
-      </c>
-      <c r="B515" s="2">
-        <v>20</v>
-      </c>
-      <c r="C515" s="2" t="s">
+      <c r="C514" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13400,7 +13411,7 @@
         <v>77</v>
       </c>
       <c r="B517" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
@@ -13411,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="B518" s="2">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
@@ -13422,7 +13433,7 @@
         <v>77</v>
       </c>
       <c r="B519" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
@@ -13455,20 +13466,20 @@
         <v>77</v>
       </c>
       <c r="B522" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="2">
-        <v>78</v>
-      </c>
-      <c r="B524" s="2">
-        <v>34</v>
-      </c>
-      <c r="C524" s="2" t="s">
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>77</v>
+      </c>
+      <c r="B523" s="2">
+        <v>295</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13477,7 +13488,7 @@
         <v>78</v>
       </c>
       <c r="B525" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
@@ -13488,7 +13499,7 @@
         <v>78</v>
       </c>
       <c r="B526" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
@@ -13499,7 +13510,7 @@
         <v>78</v>
       </c>
       <c r="B527" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>9</v>
@@ -13510,7 +13521,7 @@
         <v>78</v>
       </c>
       <c r="B528" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
@@ -13521,7 +13532,7 @@
         <v>78</v>
       </c>
       <c r="B529" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>9</v>
@@ -13532,20 +13543,20 @@
         <v>78</v>
       </c>
       <c r="B530" s="2">
+        <v>48</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>78</v>
+      </c>
+      <c r="B531" s="2">
         <v>50</v>
       </c>
-      <c r="C530" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="2">
-        <v>80</v>
-      </c>
-      <c r="B532" s="2">
-        <v>2</v>
-      </c>
-      <c r="C532" s="2" t="s">
+      <c r="C531" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13554,7 +13565,7 @@
         <v>80</v>
       </c>
       <c r="B533" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>9</v>
@@ -13565,7 +13576,7 @@
         <v>80</v>
       </c>
       <c r="B534" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>9</v>
@@ -13576,7 +13587,7 @@
         <v>80</v>
       </c>
       <c r="B535" s="2">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>9</v>
@@ -13587,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="B536" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>9</v>
@@ -13598,7 +13609,7 @@
         <v>80</v>
       </c>
       <c r="B537" s="2">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>9</v>
@@ -13609,20 +13620,20 @@
         <v>80</v>
       </c>
       <c r="B538" s="2">
+        <v>298</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>80</v>
+      </c>
+      <c r="B539" s="2">
         <v>307</v>
       </c>
-      <c r="C538" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="2">
-        <v>91</v>
-      </c>
-      <c r="B540" s="2">
-        <v>35</v>
-      </c>
-      <c r="C540" s="2" t="s">
+      <c r="C539" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13631,7 +13642,7 @@
         <v>91</v>
       </c>
       <c r="B541" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>9</v>
@@ -13642,7 +13653,7 @@
         <v>91</v>
       </c>
       <c r="B542" s="2">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>9</v>
@@ -13653,7 +13664,7 @@
         <v>91</v>
       </c>
       <c r="B543" s="2">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>9</v>
@@ -13664,7 +13675,7 @@
         <v>91</v>
       </c>
       <c r="B544" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13675,7 +13686,7 @@
         <v>91</v>
       </c>
       <c r="B545" s="2">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>9</v>
@@ -13686,7 +13697,7 @@
         <v>91</v>
       </c>
       <c r="B546" s="2">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13697,7 +13708,7 @@
         <v>91</v>
       </c>
       <c r="B547" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>9</v>
@@ -13708,20 +13719,20 @@
         <v>91</v>
       </c>
       <c r="B548" s="2">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
-      <c r="A549" s="2">
-        <v>91</v>
-      </c>
-      <c r="B549" s="2">
-        <v>229</v>
-      </c>
-      <c r="C549" s="2" t="s">
+    <row r="550" spans="1:3">
+      <c r="A550" s="2">
+        <v>92</v>
+      </c>
+      <c r="B550" s="2">
+        <v>17</v>
+      </c>
+      <c r="C550" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13730,7 +13741,7 @@
         <v>92</v>
       </c>
       <c r="B551" s="2">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>9</v>
@@ -13741,7 +13752,7 @@
         <v>92</v>
       </c>
       <c r="B552" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>9</v>
@@ -13752,7 +13763,7 @@
         <v>92</v>
       </c>
       <c r="B553" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>9</v>
@@ -13763,7 +13774,7 @@
         <v>92</v>
       </c>
       <c r="B554" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>9</v>
@@ -13774,7 +13785,7 @@
         <v>92</v>
       </c>
       <c r="B555" s="2">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>9</v>
@@ -13785,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="B556" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>9</v>
@@ -13796,20 +13807,20 @@
         <v>92</v>
       </c>
       <c r="B557" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
-      <c r="A558" s="2">
-        <v>92</v>
-      </c>
-      <c r="B558" s="2">
-        <v>172</v>
-      </c>
-      <c r="C558" s="2" t="s">
+    <row r="559" spans="1:3">
+      <c r="A559" s="2">
+        <v>93</v>
+      </c>
+      <c r="B559" s="2">
+        <v>14</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13818,7 +13829,7 @@
         <v>93</v>
       </c>
       <c r="B560" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
@@ -13829,7 +13840,7 @@
         <v>93</v>
       </c>
       <c r="B561" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>9</v>
@@ -13840,7 +13851,7 @@
         <v>93</v>
       </c>
       <c r="B562" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>9</v>
@@ -13851,7 +13862,7 @@
         <v>93</v>
       </c>
       <c r="B563" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>9</v>
@@ -13862,7 +13873,7 @@
         <v>93</v>
       </c>
       <c r="B564" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>9</v>
@@ -13873,20 +13884,20 @@
         <v>93</v>
       </c>
       <c r="B565" s="2">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="2">
-        <v>93</v>
-      </c>
-      <c r="B566" s="2">
-        <v>140</v>
-      </c>
-      <c r="C566" s="2" t="s">
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>94</v>
+      </c>
+      <c r="B567" s="2">
+        <v>26</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13895,7 +13906,7 @@
         <v>94</v>
       </c>
       <c r="B568" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>9</v>
@@ -13906,7 +13917,7 @@
         <v>94</v>
       </c>
       <c r="B569" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>9</v>
@@ -13917,7 +13928,7 @@
         <v>94</v>
       </c>
       <c r="B570" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>9</v>
@@ -13928,7 +13939,7 @@
         <v>94</v>
       </c>
       <c r="B571" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>9</v>
@@ -13939,7 +13950,7 @@
         <v>94</v>
       </c>
       <c r="B572" s="2">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>9</v>
@@ -13950,7 +13961,7 @@
         <v>94</v>
       </c>
       <c r="B573" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>9</v>
@@ -13961,20 +13972,20 @@
         <v>94</v>
       </c>
       <c r="B574" s="2">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="2">
-        <v>94</v>
-      </c>
-      <c r="B575" s="2">
-        <v>306</v>
-      </c>
-      <c r="C575" s="2" t="s">
+    <row r="576" spans="1:3">
+      <c r="A576" s="2">
+        <v>95</v>
+      </c>
+      <c r="B576" s="2">
+        <v>32</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13983,7 +13994,7 @@
         <v>95</v>
       </c>
       <c r="B577" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>9</v>
@@ -13994,7 +14005,7 @@
         <v>95</v>
       </c>
       <c r="B578" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>9</v>
@@ -14005,7 +14016,7 @@
         <v>95</v>
       </c>
       <c r="B579" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>9</v>
@@ -14016,7 +14027,7 @@
         <v>95</v>
       </c>
       <c r="B580" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>9</v>
@@ -14027,7 +14038,7 @@
         <v>95</v>
       </c>
       <c r="B581" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>9</v>
@@ -14038,20 +14049,9 @@
         <v>95</v>
       </c>
       <c r="B582" s="2">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="2">
-        <v>95</v>
-      </c>
-      <c r="B583" s="2">
-        <v>173</v>
-      </c>
-      <c r="C583" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Back-End/Results_Allocation.xlsx
+++ b/Back-End/Results_Allocation.xlsx
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>7796495360</v>
+        <v>2897149570</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2288,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="2">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="2">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2344,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="D144" s="2">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="2">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2456,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="2">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="D158" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="D162" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="2">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="2">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="2">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="2">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="D247" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="D269" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4150,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="D270" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4332,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="D283" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="D300" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4682,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="D308" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6334,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="D426" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6362,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6432,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="D433" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6446,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="D434" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6460,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="D435" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6516,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="D439" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6880,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="D465" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="D466" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7104,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="D481" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7174,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="D486" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7188,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="D487" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7202,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="D488" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7328,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="D497" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7762,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="D528" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="D529" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7804,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="D531" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7818,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="D532" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7832,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="D533" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7860,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="D535" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="D543" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -7986,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="D544" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8000,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="D545" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8014,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="D546" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="D547" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7796495360</v>
+        <v>2897149570</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -8109,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -8120,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>136</v>
+        <v>524</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>160</v>
+        <v>526</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -8175,20 +8175,20 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>162</v>
+        <v>527</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>528</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>262</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>434</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>524</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -8241,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>526</v>
+        <v>262</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>527</v>
+        <v>265</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -8263,20 +8263,20 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>528</v>
+        <v>303</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>423</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -8296,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -8307,7 +8307,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -8318,7 +8318,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -8329,7 +8329,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="2">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -8340,7 +8340,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -8351,54 +8351,54 @@
         <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>523</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>178</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2">
-        <v>223</v>
+        <v>541</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>278</v>
+        <v>542</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2">
-        <v>346</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>394</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="2">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -8439,7 +8439,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>426</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -8450,7 +8450,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="2">
-        <v>476</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -8461,7 +8461,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>477</v>
+        <v>215</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -8472,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>478</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -8483,7 +8483,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -8494,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="2">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -8505,7 +8505,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -8516,7 +8516,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="2">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -8538,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -8549,7 +8549,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -8560,7 +8560,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="2">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -8571,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -8582,7 +8582,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="2">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -8593,7 +8593,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -8604,7 +8604,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -8626,18 +8626,29 @@
         <v>17</v>
       </c>
       <c r="B58" s="2">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
+        <v>516</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -8645,10 +8656,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -8656,23 +8667,12 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="2">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>18</v>
-      </c>
-      <c r="B63" s="2">
-        <v>455</v>
-      </c>
-      <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>456</v>
+        <v>278</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -8692,7 +8692,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -8703,7 +8703,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -8714,7 +8714,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -8725,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -8736,7 +8736,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
@@ -8747,7 +8747,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -8769,7 +8769,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -8780,7 +8780,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>10</v>
@@ -8791,7 +8791,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -8802,7 +8802,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -8813,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -8824,7 +8824,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -8835,7 +8835,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -8846,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
@@ -8868,7 +8868,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
@@ -8879,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -8890,18 +8890,29 @@
         <v>18</v>
       </c>
       <c r="B83" s="2">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>18</v>
+      </c>
+      <c r="B84" s="2">
+        <v>473</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B85" s="2">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>10</v>
@@ -8909,10 +8920,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B86" s="2">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -8920,23 +8931,12 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B87" s="2">
-        <v>422</v>
+        <v>506</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
-        <v>20</v>
-      </c>
-      <c r="B88" s="2">
-        <v>425</v>
-      </c>
-      <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>10</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -8967,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="B91" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -8978,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="B93" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -9000,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -9011,7 +9011,7 @@
         <v>20</v>
       </c>
       <c r="B95" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -9022,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -9033,7 +9033,7 @@
         <v>20</v>
       </c>
       <c r="B97" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -9044,7 +9044,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -9055,7 +9055,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -9066,7 +9066,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -9077,7 +9077,7 @@
         <v>20</v>
       </c>
       <c r="B101" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -9088,7 +9088,7 @@
         <v>20</v>
       </c>
       <c r="B102" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
@@ -9099,7 +9099,7 @@
         <v>20</v>
       </c>
       <c r="B103" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
@@ -9110,7 +9110,7 @@
         <v>20</v>
       </c>
       <c r="B104" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
@@ -9121,7 +9121,7 @@
         <v>20</v>
       </c>
       <c r="B105" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -9132,7 +9132,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="2">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
@@ -9143,7 +9143,7 @@
         <v>20</v>
       </c>
       <c r="B107" s="2">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -9154,18 +9154,29 @@
         <v>20</v>
       </c>
       <c r="B108" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2">
+        <v>483</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110" s="2">
-        <v>287</v>
+        <v>486</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
@@ -9173,10 +9184,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111" s="2">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -9184,23 +9195,12 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112" s="2">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2">
-        <v>21</v>
-      </c>
-      <c r="B113" s="2">
-        <v>398</v>
-      </c>
-      <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="2">
-        <v>399</v>
+        <v>287</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -9220,7 +9220,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="2">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -9231,7 +9231,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -9242,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
@@ -9253,7 +9253,7 @@
         <v>21</v>
       </c>
       <c r="B118" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
@@ -9264,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -9275,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="B120" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
@@ -9297,7 +9297,7 @@
         <v>21</v>
       </c>
       <c r="B122" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -9308,7 +9308,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -9319,7 +9319,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
@@ -9330,7 +9330,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -9352,7 +9352,7 @@
         <v>21</v>
       </c>
       <c r="B127" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
@@ -9363,7 +9363,7 @@
         <v>21</v>
       </c>
       <c r="B128" s="2">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
@@ -9374,7 +9374,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="2">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
@@ -9385,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -9396,7 +9396,7 @@
         <v>21</v>
       </c>
       <c r="B131" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -9407,7 +9407,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -9418,7 +9418,7 @@
         <v>21</v>
       </c>
       <c r="B133" s="2">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -9429,7 +9429,7 @@
         <v>21</v>
       </c>
       <c r="B134" s="2">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -9440,18 +9440,29 @@
         <v>21</v>
       </c>
       <c r="B135" s="2">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>21</v>
+      </c>
+      <c r="B136" s="2">
+        <v>452</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B137" s="2">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
@@ -9459,10 +9470,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B138" s="2">
-        <v>285</v>
+        <v>499</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -9470,23 +9481,12 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B139" s="2">
-        <v>296</v>
+        <v>514</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
-        <v>22</v>
-      </c>
-      <c r="B140" s="2">
-        <v>314</v>
-      </c>
-      <c r="C140" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="2">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -9506,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="2">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -9517,7 +9517,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="2">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="2">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
@@ -9539,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B145" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
@@ -9550,7 +9550,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
@@ -9561,7 +9561,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -9572,7 +9572,7 @@
         <v>22</v>
       </c>
       <c r="B148" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -9583,7 +9583,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -9594,7 +9594,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>10</v>
@@ -9605,7 +9605,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -9616,7 +9616,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>10</v>
@@ -9627,7 +9627,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>10</v>
@@ -9638,7 +9638,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -9649,7 +9649,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
@@ -9660,7 +9660,7 @@
         <v>22</v>
       </c>
       <c r="B156" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -9671,7 +9671,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -9682,7 +9682,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -9693,7 +9693,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>10</v>
@@ -9704,7 +9704,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>10</v>
@@ -9715,7 +9715,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -9726,7 +9726,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
@@ -9737,18 +9737,29 @@
         <v>22</v>
       </c>
       <c r="B163" s="2">
-        <v>494</v>
+        <v>390</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>22</v>
+      </c>
+      <c r="B164" s="2">
+        <v>391</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B165" s="2">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>10</v>
@@ -9756,10 +9767,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B166" s="2">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>10</v>
@@ -9767,23 +9778,12 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B167" s="2">
-        <v>350</v>
+        <v>494</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2">
-        <v>23</v>
-      </c>
-      <c r="B168" s="2">
-        <v>351</v>
-      </c>
-      <c r="C168" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9792,7 +9792,7 @@
         <v>23</v>
       </c>
       <c r="B169" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -9803,7 +9803,7 @@
         <v>23</v>
       </c>
       <c r="B170" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -9814,7 +9814,7 @@
         <v>23</v>
       </c>
       <c r="B171" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>10</v>
@@ -9825,7 +9825,7 @@
         <v>23</v>
       </c>
       <c r="B172" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>10</v>
@@ -9836,7 +9836,7 @@
         <v>23</v>
       </c>
       <c r="B173" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>10</v>
@@ -9858,7 +9858,7 @@
         <v>23</v>
       </c>
       <c r="B175" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>
@@ -9869,7 +9869,7 @@
         <v>23</v>
       </c>
       <c r="B176" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>10</v>
@@ -9880,7 +9880,7 @@
         <v>23</v>
       </c>
       <c r="B177" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>10</v>
@@ -9891,7 +9891,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>10</v>
@@ -9902,7 +9902,7 @@
         <v>23</v>
       </c>
       <c r="B179" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>10</v>
@@ -9913,7 +9913,7 @@
         <v>23</v>
       </c>
       <c r="B180" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>10</v>
@@ -9924,7 +9924,7 @@
         <v>23</v>
       </c>
       <c r="B181" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>10</v>
@@ -9935,7 +9935,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
@@ -9946,7 +9946,7 @@
         <v>23</v>
       </c>
       <c r="B183" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>10</v>
@@ -9957,7 +9957,7 @@
         <v>23</v>
       </c>
       <c r="B184" s="2">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -9968,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="B185" s="2">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
@@ -9979,7 +9979,7 @@
         <v>23</v>
       </c>
       <c r="B186" s="2">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>10</v>
@@ -9990,7 +9990,7 @@
         <v>23</v>
       </c>
       <c r="B187" s="2">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>10</v>
@@ -10001,18 +10001,29 @@
         <v>23</v>
       </c>
       <c r="B188" s="2">
-        <v>510</v>
+        <v>397</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>23</v>
+      </c>
+      <c r="B189" s="2">
+        <v>402</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190" s="2">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>10</v>
@@ -10020,10 +10031,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B191" s="2">
-        <v>315</v>
+        <v>419</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>10</v>
@@ -10031,23 +10042,12 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192" s="2">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2">
-        <v>24</v>
-      </c>
-      <c r="B193" s="2">
-        <v>317</v>
-      </c>
-      <c r="C193" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
         <v>24</v>
       </c>
       <c r="B194" s="2">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>10</v>
@@ -10067,7 +10067,7 @@
         <v>24</v>
       </c>
       <c r="B195" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -10078,7 +10078,7 @@
         <v>24</v>
       </c>
       <c r="B196" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
@@ -10089,7 +10089,7 @@
         <v>24</v>
       </c>
       <c r="B197" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -10100,7 +10100,7 @@
         <v>24</v>
       </c>
       <c r="B198" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -10111,7 +10111,7 @@
         <v>24</v>
       </c>
       <c r="B199" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
@@ -10122,7 +10122,7 @@
         <v>24</v>
       </c>
       <c r="B200" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -10133,7 +10133,7 @@
         <v>24</v>
       </c>
       <c r="B201" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -10144,7 +10144,7 @@
         <v>24</v>
       </c>
       <c r="B202" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -10155,7 +10155,7 @@
         <v>24</v>
       </c>
       <c r="B203" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -10166,7 +10166,7 @@
         <v>24</v>
       </c>
       <c r="B204" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -10177,7 +10177,7 @@
         <v>24</v>
       </c>
       <c r="B205" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -10188,7 +10188,7 @@
         <v>24</v>
       </c>
       <c r="B206" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -10199,7 +10199,7 @@
         <v>24</v>
       </c>
       <c r="B207" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -10210,7 +10210,7 @@
         <v>24</v>
       </c>
       <c r="B208" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -10221,7 +10221,7 @@
         <v>24</v>
       </c>
       <c r="B209" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -10232,7 +10232,7 @@
         <v>24</v>
       </c>
       <c r="B210" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -10243,7 +10243,7 @@
         <v>24</v>
       </c>
       <c r="B211" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -10254,7 +10254,7 @@
         <v>24</v>
       </c>
       <c r="B212" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -10265,7 +10265,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
@@ -10276,7 +10276,7 @@
         <v>24</v>
       </c>
       <c r="B214" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
@@ -10287,7 +10287,7 @@
         <v>24</v>
       </c>
       <c r="B215" s="2">
-        <v>508</v>
+        <v>338</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
@@ -10298,18 +10298,29 @@
         <v>24</v>
       </c>
       <c r="B216" s="2">
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>24</v>
+      </c>
+      <c r="B217" s="2">
+        <v>345</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B218" s="2">
-        <v>199</v>
+        <v>347</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -10317,10 +10328,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B219" s="2">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -10328,23 +10339,12 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B220" s="2">
-        <v>206</v>
+        <v>518</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2">
-        <v>25</v>
-      </c>
-      <c r="B221" s="2">
-        <v>207</v>
-      </c>
-      <c r="C221" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
         <v>25</v>
       </c>
       <c r="B222" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -10364,7 +10364,7 @@
         <v>25</v>
       </c>
       <c r="B223" s="2">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -10375,7 +10375,7 @@
         <v>25</v>
       </c>
       <c r="B224" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -10386,7 +10386,7 @@
         <v>25</v>
       </c>
       <c r="B225" s="2">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
@@ -10397,7 +10397,7 @@
         <v>25</v>
       </c>
       <c r="B226" s="2">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
@@ -10408,7 +10408,7 @@
         <v>25</v>
       </c>
       <c r="B227" s="2">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -10419,7 +10419,7 @@
         <v>25</v>
       </c>
       <c r="B228" s="2">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
@@ -10430,7 +10430,7 @@
         <v>25</v>
       </c>
       <c r="B229" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
@@ -10441,7 +10441,7 @@
         <v>25</v>
       </c>
       <c r="B230" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
@@ -10452,7 +10452,7 @@
         <v>25</v>
       </c>
       <c r="B231" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
@@ -10463,7 +10463,7 @@
         <v>25</v>
       </c>
       <c r="B232" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
@@ -10474,7 +10474,7 @@
         <v>25</v>
       </c>
       <c r="B233" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
@@ -10485,7 +10485,7 @@
         <v>25</v>
       </c>
       <c r="B234" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
@@ -10496,7 +10496,7 @@
         <v>25</v>
       </c>
       <c r="B235" s="2">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
@@ -10507,7 +10507,7 @@
         <v>25</v>
       </c>
       <c r="B236" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -10518,7 +10518,7 @@
         <v>25</v>
       </c>
       <c r="B237" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
@@ -10529,7 +10529,7 @@
         <v>25</v>
       </c>
       <c r="B238" s="2">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="B239" s="2">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
@@ -10551,7 +10551,7 @@
         <v>25</v>
       </c>
       <c r="B240" s="2">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
@@ -10562,7 +10562,7 @@
         <v>25</v>
       </c>
       <c r="B241" s="2">
-        <v>532</v>
+        <v>313</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
@@ -10573,18 +10573,29 @@
         <v>25</v>
       </c>
       <c r="B242" s="2">
-        <v>535</v>
+        <v>370</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>25</v>
+      </c>
+      <c r="B243" s="2">
+        <v>379</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B244" s="2">
-        <v>198</v>
+        <v>500</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -10592,10 +10603,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B245" s="2">
-        <v>250</v>
+        <v>532</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -10603,23 +10614,12 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B246" s="2">
-        <v>255</v>
+        <v>535</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="2">
-        <v>27</v>
-      </c>
-      <c r="B247" s="2">
-        <v>258</v>
-      </c>
-      <c r="C247" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
         <v>27</v>
       </c>
       <c r="B248" s="2">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -10639,7 +10639,7 @@
         <v>27</v>
       </c>
       <c r="B249" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -10650,7 +10650,7 @@
         <v>27</v>
       </c>
       <c r="B250" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -10661,7 +10661,7 @@
         <v>27</v>
       </c>
       <c r="B251" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -10672,7 +10672,7 @@
         <v>27</v>
       </c>
       <c r="B252" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
@@ -10683,7 +10683,7 @@
         <v>27</v>
       </c>
       <c r="B253" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
@@ -10694,7 +10694,7 @@
         <v>27</v>
       </c>
       <c r="B254" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>27</v>
       </c>
       <c r="B255" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="B256" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -10727,7 +10727,7 @@
         <v>27</v>
       </c>
       <c r="B257" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -10738,7 +10738,7 @@
         <v>27</v>
       </c>
       <c r="B258" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
@@ -10749,7 +10749,7 @@
         <v>27</v>
       </c>
       <c r="B259" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>10</v>
@@ -10760,7 +10760,7 @@
         <v>27</v>
       </c>
       <c r="B260" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>10</v>
@@ -10771,7 +10771,7 @@
         <v>27</v>
       </c>
       <c r="B261" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
@@ -10782,7 +10782,7 @@
         <v>27</v>
       </c>
       <c r="B262" s="2">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
@@ -10793,7 +10793,7 @@
         <v>27</v>
       </c>
       <c r="B263" s="2">
-        <v>479</v>
+        <v>273</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>10</v>
@@ -10804,7 +10804,7 @@
         <v>27</v>
       </c>
       <c r="B264" s="2">
-        <v>490</v>
+        <v>274</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>10</v>
@@ -10815,7 +10815,7 @@
         <v>27</v>
       </c>
       <c r="B265" s="2">
-        <v>491</v>
+        <v>275</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>10</v>
@@ -10826,7 +10826,7 @@
         <v>27</v>
       </c>
       <c r="B266" s="2">
-        <v>495</v>
+        <v>341</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>10</v>
@@ -10837,7 +10837,7 @@
         <v>27</v>
       </c>
       <c r="B267" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>10</v>
@@ -10848,18 +10848,29 @@
         <v>27</v>
       </c>
       <c r="B268" s="2">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="C268" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>27</v>
+      </c>
+      <c r="B269" s="2">
+        <v>491</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B270" s="2">
-        <v>218</v>
+        <v>495</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>10</v>
@@ -10867,10 +10878,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B271" s="2">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>10</v>
@@ -10878,23 +10889,12 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B272" s="2">
-        <v>222</v>
+        <v>536</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="2">
-        <v>28</v>
-      </c>
-      <c r="B273" s="2">
-        <v>224</v>
-      </c>
-      <c r="C273" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
         <v>28</v>
       </c>
       <c r="B274" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>10</v>
@@ -10914,7 +10914,7 @@
         <v>28</v>
       </c>
       <c r="B275" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>10</v>
@@ -10925,7 +10925,7 @@
         <v>28</v>
       </c>
       <c r="B276" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>10</v>
@@ -10936,7 +10936,7 @@
         <v>28</v>
       </c>
       <c r="B277" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>10</v>
@@ -10947,7 +10947,7 @@
         <v>28</v>
       </c>
       <c r="B278" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>10</v>
@@ -10958,7 +10958,7 @@
         <v>28</v>
       </c>
       <c r="B279" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>10</v>
@@ -10969,7 +10969,7 @@
         <v>28</v>
       </c>
       <c r="B280" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>10</v>
@@ -10980,7 +10980,7 @@
         <v>28</v>
       </c>
       <c r="B281" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>10</v>
@@ -10991,7 +10991,7 @@
         <v>28</v>
       </c>
       <c r="B282" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>10</v>
@@ -11002,7 +11002,7 @@
         <v>28</v>
       </c>
       <c r="B283" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>10</v>
@@ -11013,7 +11013,7 @@
         <v>28</v>
       </c>
       <c r="B284" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>10</v>
@@ -11024,7 +11024,7 @@
         <v>28</v>
       </c>
       <c r="B285" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>10</v>
@@ -11035,7 +11035,7 @@
         <v>28</v>
       </c>
       <c r="B286" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>10</v>
@@ -11046,7 +11046,7 @@
         <v>28</v>
       </c>
       <c r="B287" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>10</v>
@@ -11057,7 +11057,7 @@
         <v>28</v>
       </c>
       <c r="B288" s="2">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>10</v>
@@ -11068,7 +11068,7 @@
         <v>28</v>
       </c>
       <c r="B289" s="2">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>10</v>
@@ -11079,7 +11079,7 @@
         <v>28</v>
       </c>
       <c r="B290" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>10</v>
@@ -11090,7 +11090,7 @@
         <v>28</v>
       </c>
       <c r="B291" s="2">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>10</v>
@@ -11101,7 +11101,7 @@
         <v>28</v>
       </c>
       <c r="B292" s="2">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>10</v>
@@ -11112,18 +11112,29 @@
         <v>28</v>
       </c>
       <c r="B293" s="2">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C293" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>28</v>
+      </c>
+      <c r="B294" s="2">
+        <v>301</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B295" s="2">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>10</v>
@@ -11131,10 +11142,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B296" s="2">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>10</v>
@@ -11142,23 +11153,12 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B297" s="2">
-        <v>210</v>
+        <v>531</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="2">
-        <v>29</v>
-      </c>
-      <c r="B298" s="2">
-        <v>211</v>
-      </c>
-      <c r="C298" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
         <v>29</v>
       </c>
       <c r="B299" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>10</v>
@@ -11178,7 +11178,7 @@
         <v>29</v>
       </c>
       <c r="B300" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>10</v>
@@ -11189,7 +11189,7 @@
         <v>29</v>
       </c>
       <c r="B301" s="2">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>10</v>
@@ -11200,7 +11200,7 @@
         <v>29</v>
       </c>
       <c r="B302" s="2">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>10</v>
@@ -11211,7 +11211,7 @@
         <v>29</v>
       </c>
       <c r="B303" s="2">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>10</v>
@@ -11222,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="B304" s="2">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>10</v>
@@ -11233,7 +11233,7 @@
         <v>29</v>
       </c>
       <c r="B305" s="2">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>10</v>
@@ -11244,7 +11244,7 @@
         <v>29</v>
       </c>
       <c r="B306" s="2">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>10</v>
@@ -11255,7 +11255,7 @@
         <v>29</v>
       </c>
       <c r="B307" s="2">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>10</v>
@@ -11266,7 +11266,7 @@
         <v>29</v>
       </c>
       <c r="B308" s="2">
-        <v>496</v>
+        <v>365</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>10</v>
@@ -11277,54 +11277,54 @@
         <v>29</v>
       </c>
       <c r="B309" s="2">
-        <v>534</v>
+        <v>369</v>
       </c>
       <c r="C309" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>29</v>
+      </c>
+      <c r="B310" s="2">
+        <v>396</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B311" s="2">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B312" s="2">
-        <v>189</v>
+        <v>496</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B313" s="2">
-        <v>241</v>
+        <v>534</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="2">
-        <v>31</v>
-      </c>
-      <c r="B314" s="2">
-        <v>265</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11332,7 +11332,7 @@
         <v>31</v>
       </c>
       <c r="B315" s="2">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -11343,7 +11343,7 @@
         <v>31</v>
       </c>
       <c r="B316" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -11354,7 +11354,7 @@
         <v>31</v>
       </c>
       <c r="B317" s="2">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -11365,65 +11365,65 @@
         <v>31</v>
       </c>
       <c r="B318" s="2">
-        <v>538</v>
+        <v>142</v>
       </c>
       <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>31</v>
+      </c>
+      <c r="B319" s="2">
+        <v>165</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B320" s="2">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B321" s="2">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B322" s="2">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B323" s="2">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="2">
-        <v>32</v>
-      </c>
-      <c r="B324" s="2">
-        <v>149</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -11431,7 +11431,7 @@
         <v>32</v>
       </c>
       <c r="B325" s="2">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>10</v>
@@ -11442,7 +11442,7 @@
         <v>32</v>
       </c>
       <c r="B326" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>10</v>
@@ -11453,7 +11453,7 @@
         <v>32</v>
       </c>
       <c r="B327" s="2">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>10</v>
@@ -11464,7 +11464,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>10</v>
@@ -11475,7 +11475,7 @@
         <v>32</v>
       </c>
       <c r="B329" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>10</v>
@@ -11486,7 +11486,7 @@
         <v>32</v>
       </c>
       <c r="B330" s="2">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>10</v>
@@ -11497,7 +11497,7 @@
         <v>32</v>
       </c>
       <c r="B331" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>10</v>
@@ -11508,7 +11508,7 @@
         <v>32</v>
       </c>
       <c r="B332" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>10</v>
@@ -11519,7 +11519,7 @@
         <v>32</v>
       </c>
       <c r="B333" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>10</v>
@@ -11530,7 +11530,7 @@
         <v>32</v>
       </c>
       <c r="B334" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>10</v>
@@ -11541,7 +11541,7 @@
         <v>32</v>
       </c>
       <c r="B335" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>10</v>
@@ -11552,7 +11552,7 @@
         <v>32</v>
       </c>
       <c r="B336" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>10</v>
@@ -11563,7 +11563,7 @@
         <v>32</v>
       </c>
       <c r="B337" s="2">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>10</v>
@@ -11574,7 +11574,7 @@
         <v>32</v>
       </c>
       <c r="B338" s="2">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>10</v>
@@ -11585,7 +11585,7 @@
         <v>32</v>
       </c>
       <c r="B339" s="2">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>10</v>
@@ -11596,7 +11596,7 @@
         <v>32</v>
       </c>
       <c r="B340" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         <v>32</v>
       </c>
       <c r="B341" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>10</v>
@@ -11618,7 +11618,7 @@
         <v>32</v>
       </c>
       <c r="B342" s="2">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>10</v>
@@ -11629,7 +11629,7 @@
         <v>32</v>
       </c>
       <c r="B343" s="2">
-        <v>392</v>
+        <v>204</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>10</v>
@@ -11640,18 +11640,29 @@
         <v>32</v>
       </c>
       <c r="B344" s="2">
-        <v>492</v>
+        <v>205</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>32</v>
+      </c>
+      <c r="B345" s="2">
+        <v>214</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B346" s="2">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>10</v>
@@ -11659,10 +11670,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B347" s="2">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>10</v>
@@ -11670,10 +11681,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B348" s="2">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>10</v>
@@ -11681,23 +11692,12 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B349" s="2">
-        <v>106</v>
+        <v>428</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="2">
-        <v>33</v>
-      </c>
-      <c r="B350" s="2">
-        <v>107</v>
-      </c>
-      <c r="C350" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
         <v>33</v>
       </c>
       <c r="B351" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>10</v>
@@ -11717,7 +11717,7 @@
         <v>33</v>
       </c>
       <c r="B352" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>10</v>
@@ -11728,7 +11728,7 @@
         <v>33</v>
       </c>
       <c r="B353" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>10</v>
@@ -11739,7 +11739,7 @@
         <v>33</v>
       </c>
       <c r="B354" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>10</v>
@@ -11750,7 +11750,7 @@
         <v>33</v>
       </c>
       <c r="B355" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>10</v>
@@ -11761,7 +11761,7 @@
         <v>33</v>
       </c>
       <c r="B356" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>10</v>
@@ -11772,7 +11772,7 @@
         <v>33</v>
       </c>
       <c r="B357" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>10</v>
@@ -11783,7 +11783,7 @@
         <v>33</v>
       </c>
       <c r="B358" s="2">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>10</v>
@@ -11794,7 +11794,7 @@
         <v>33</v>
       </c>
       <c r="B359" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>10</v>
@@ -11805,7 +11805,7 @@
         <v>33</v>
       </c>
       <c r="B360" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>10</v>
@@ -11816,7 +11816,7 @@
         <v>33</v>
       </c>
       <c r="B361" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>10</v>
@@ -11827,7 +11827,7 @@
         <v>33</v>
       </c>
       <c r="B362" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>10</v>
@@ -11838,7 +11838,7 @@
         <v>33</v>
       </c>
       <c r="B363" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>10</v>
@@ -11849,7 +11849,7 @@
         <v>33</v>
       </c>
       <c r="B364" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>10</v>
@@ -11860,7 +11860,7 @@
         <v>33</v>
       </c>
       <c r="B365" s="2">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>10</v>
@@ -11871,7 +11871,7 @@
         <v>33</v>
       </c>
       <c r="B366" s="2">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>10</v>
@@ -11882,7 +11882,7 @@
         <v>33</v>
       </c>
       <c r="B367" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>10</v>
@@ -11893,7 +11893,7 @@
         <v>33</v>
       </c>
       <c r="B368" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>10</v>
@@ -11904,18 +11904,29 @@
         <v>33</v>
       </c>
       <c r="B369" s="2">
-        <v>521</v>
+        <v>153</v>
       </c>
       <c r="C369" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>33</v>
+      </c>
+      <c r="B370" s="2">
+        <v>191</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B371" s="2">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>10</v>
@@ -11923,10 +11934,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B372" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>10</v>
@@ -11934,10 +11945,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B373" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>10</v>
@@ -11945,23 +11956,12 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B374" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="2">
-        <v>35</v>
-      </c>
-      <c r="B375" s="2">
-        <v>82</v>
-      </c>
-      <c r="C375" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
         <v>35</v>
       </c>
       <c r="B376" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>10</v>
@@ -11981,7 +11981,7 @@
         <v>35</v>
       </c>
       <c r="B377" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>10</v>
@@ -11992,7 +11992,7 @@
         <v>35</v>
       </c>
       <c r="B378" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>10</v>
@@ -12003,7 +12003,7 @@
         <v>35</v>
       </c>
       <c r="B379" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>10</v>
@@ -12014,7 +12014,7 @@
         <v>35</v>
       </c>
       <c r="B380" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>10</v>
@@ -12025,7 +12025,7 @@
         <v>35</v>
       </c>
       <c r="B381" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>10</v>
@@ -12036,7 +12036,7 @@
         <v>35</v>
       </c>
       <c r="B382" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>10</v>
@@ -12047,7 +12047,7 @@
         <v>35</v>
       </c>
       <c r="B383" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>10</v>
@@ -12058,7 +12058,7 @@
         <v>35</v>
       </c>
       <c r="B384" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>10</v>
@@ -12069,7 +12069,7 @@
         <v>35</v>
       </c>
       <c r="B385" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>10</v>
@@ -12080,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="B386" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>10</v>
@@ -12091,7 +12091,7 @@
         <v>35</v>
       </c>
       <c r="B387" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>10</v>
@@ -12102,7 +12102,7 @@
         <v>35</v>
       </c>
       <c r="B388" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>10</v>
@@ -12113,7 +12113,7 @@
         <v>35</v>
       </c>
       <c r="B389" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>10</v>
@@ -12124,7 +12124,7 @@
         <v>35</v>
       </c>
       <c r="B390" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>10</v>
@@ -12135,7 +12135,7 @@
         <v>35</v>
       </c>
       <c r="B391" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>10</v>
@@ -12146,7 +12146,7 @@
         <v>35</v>
       </c>
       <c r="B392" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>10</v>
@@ -12157,18 +12157,29 @@
         <v>35</v>
       </c>
       <c r="B393" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="C393" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>35</v>
+      </c>
+      <c r="B394" s="2">
+        <v>150</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B395" s="2">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>10</v>
@@ -12176,10 +12187,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B396" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>10</v>
@@ -12187,10 +12198,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B397" s="2">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>10</v>
@@ -12198,23 +12209,12 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B398" s="2">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="2">
-        <v>36</v>
-      </c>
-      <c r="B399" s="2">
-        <v>77</v>
-      </c>
-      <c r="C399" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>36</v>
       </c>
       <c r="B400" s="2">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>10</v>
@@ -12234,7 +12234,7 @@
         <v>36</v>
       </c>
       <c r="B401" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>10</v>
@@ -12245,7 +12245,7 @@
         <v>36</v>
       </c>
       <c r="B402" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>10</v>
@@ -12256,7 +12256,7 @@
         <v>36</v>
       </c>
       <c r="B403" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>10</v>
@@ -12267,7 +12267,7 @@
         <v>36</v>
       </c>
       <c r="B404" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>10</v>
@@ -12278,7 +12278,7 @@
         <v>36</v>
       </c>
       <c r="B405" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>10</v>
@@ -12289,7 +12289,7 @@
         <v>36</v>
       </c>
       <c r="B406" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>10</v>
@@ -12300,7 +12300,7 @@
         <v>36</v>
       </c>
       <c r="B407" s="2">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>10</v>
@@ -12311,7 +12311,7 @@
         <v>36</v>
       </c>
       <c r="B408" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>10</v>
@@ -12322,7 +12322,7 @@
         <v>36</v>
       </c>
       <c r="B409" s="2">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>10</v>
@@ -12333,7 +12333,7 @@
         <v>36</v>
       </c>
       <c r="B410" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>10</v>
@@ -12344,7 +12344,7 @@
         <v>36</v>
       </c>
       <c r="B411" s="2">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>10</v>
@@ -12355,7 +12355,7 @@
         <v>36</v>
       </c>
       <c r="B412" s="2">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>10</v>
@@ -12366,7 +12366,7 @@
         <v>36</v>
       </c>
       <c r="B413" s="2">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>10</v>
@@ -12377,7 +12377,7 @@
         <v>36</v>
       </c>
       <c r="B414" s="2">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>10</v>
@@ -12388,7 +12388,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>10</v>
@@ -12399,7 +12399,7 @@
         <v>36</v>
       </c>
       <c r="B416" s="2">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>10</v>
@@ -12410,65 +12410,65 @@
         <v>36</v>
       </c>
       <c r="B417" s="2">
-        <v>522</v>
+        <v>276</v>
       </c>
       <c r="C417" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>36</v>
+      </c>
+      <c r="B418" s="2">
+        <v>279</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B419" s="2">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B420" s="2">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B421" s="2">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B422" s="2">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="2">
-        <v>46</v>
-      </c>
-      <c r="B423" s="2">
-        <v>177</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -12476,7 +12476,7 @@
         <v>46</v>
       </c>
       <c r="B424" s="2">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -12487,7 +12487,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="2">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -12498,18 +12498,29 @@
         <v>46</v>
       </c>
       <c r="B426" s="2">
-        <v>529</v>
+        <v>42</v>
       </c>
       <c r="C426" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>46</v>
+      </c>
+      <c r="B427" s="2">
+        <v>167</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B428" s="2">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -12517,10 +12528,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B429" s="2">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -12528,10 +12539,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B430" s="2">
-        <v>236</v>
+        <v>523</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -12539,23 +12550,12 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B431" s="2">
-        <v>244</v>
+        <v>529</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="2">
-        <v>47</v>
-      </c>
-      <c r="B432" s="2">
-        <v>256</v>
-      </c>
-      <c r="C432" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
         <v>47</v>
       </c>
       <c r="B433" s="2">
-        <v>429</v>
+        <v>126</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -12575,7 +12575,7 @@
         <v>47</v>
       </c>
       <c r="B434" s="2">
-        <v>530</v>
+        <v>144</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -12586,7 +12586,7 @@
         <v>47</v>
       </c>
       <c r="B435" s="2">
-        <v>540</v>
+        <v>186</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -12597,7 +12597,7 @@
         <v>47</v>
       </c>
       <c r="B436" s="2">
-        <v>541</v>
+        <v>295</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -12608,31 +12608,31 @@
         <v>47</v>
       </c>
       <c r="B437" s="2">
-        <v>542</v>
+        <v>304</v>
       </c>
       <c r="C437" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>47</v>
+      </c>
+      <c r="B438" s="2">
+        <v>305</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B439" s="2">
-        <v>15</v>
+        <v>538</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="2">
-        <v>48</v>
-      </c>
-      <c r="B440" s="2">
-        <v>44</v>
-      </c>
-      <c r="C440" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
         <v>48</v>
       </c>
       <c r="B441" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -12652,7 +12652,7 @@
         <v>48</v>
       </c>
       <c r="B442" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>48</v>
       </c>
       <c r="B443" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>48</v>
       </c>
       <c r="B444" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -12685,18 +12685,29 @@
         <v>48</v>
       </c>
       <c r="B445" s="2">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>48</v>
+      </c>
+      <c r="B446" s="2">
+        <v>55</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B447" s="2">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -12704,24 +12715,13 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B449" s="2">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="2">
-        <v>61</v>
-      </c>
-      <c r="B450" s="2">
-        <v>75</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -12729,7 +12729,7 @@
         <v>61</v>
       </c>
       <c r="B451" s="2">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>10</v>
@@ -12740,7 +12740,7 @@
         <v>61</v>
       </c>
       <c r="B452" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>10</v>
@@ -12751,7 +12751,7 @@
         <v>61</v>
       </c>
       <c r="B453" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>10</v>
@@ -12762,7 +12762,7 @@
         <v>61</v>
       </c>
       <c r="B454" s="2">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>10</v>
@@ -12773,7 +12773,7 @@
         <v>61</v>
       </c>
       <c r="B455" s="2">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>10</v>
@@ -12784,7 +12784,7 @@
         <v>61</v>
       </c>
       <c r="B456" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>10</v>
@@ -12795,7 +12795,7 @@
         <v>61</v>
       </c>
       <c r="B457" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>10</v>
@@ -12806,7 +12806,7 @@
         <v>61</v>
       </c>
       <c r="B458" s="2">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>10</v>
@@ -12817,7 +12817,7 @@
         <v>61</v>
       </c>
       <c r="B459" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>10</v>
@@ -12828,7 +12828,7 @@
         <v>61</v>
       </c>
       <c r="B460" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>10</v>
@@ -12839,7 +12839,7 @@
         <v>61</v>
       </c>
       <c r="B461" s="2">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>10</v>
@@ -12850,7 +12850,7 @@
         <v>61</v>
       </c>
       <c r="B462" s="2">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>10</v>
@@ -12861,7 +12861,7 @@
         <v>61</v>
       </c>
       <c r="B463" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>10</v>
@@ -12872,7 +12872,7 @@
         <v>61</v>
       </c>
       <c r="B464" s="2">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>10</v>
@@ -12883,7 +12883,7 @@
         <v>61</v>
       </c>
       <c r="B465" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>10</v>
@@ -12894,7 +12894,7 @@
         <v>61</v>
       </c>
       <c r="B466" s="2">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>10</v>
@@ -12905,7 +12905,7 @@
         <v>61</v>
       </c>
       <c r="B467" s="2">
-        <v>466</v>
+        <v>342</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>10</v>
@@ -12916,7 +12916,7 @@
         <v>61</v>
       </c>
       <c r="B468" s="2">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>10</v>
@@ -12927,7 +12927,7 @@
         <v>61</v>
       </c>
       <c r="B469" s="2">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>10</v>
@@ -12938,7 +12938,7 @@
         <v>61</v>
       </c>
       <c r="B470" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>10</v>
@@ -12949,7 +12949,7 @@
         <v>61</v>
       </c>
       <c r="B471" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>10</v>
@@ -12960,7 +12960,7 @@
         <v>61</v>
       </c>
       <c r="B472" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>10</v>
@@ -12971,7 +12971,7 @@
         <v>61</v>
       </c>
       <c r="B473" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>10</v>
@@ -12982,7 +12982,7 @@
         <v>61</v>
       </c>
       <c r="B474" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>10</v>
@@ -12993,7 +12993,7 @@
         <v>61</v>
       </c>
       <c r="B475" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>10</v>
@@ -13004,7 +13004,7 @@
         <v>61</v>
       </c>
       <c r="B476" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>10</v>
@@ -13015,7 +13015,7 @@
         <v>61</v>
       </c>
       <c r="B477" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>10</v>
@@ -13026,7 +13026,7 @@
         <v>61</v>
       </c>
       <c r="B478" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>10</v>
@@ -13037,32 +13037,32 @@
         <v>61</v>
       </c>
       <c r="B479" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C479" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>61</v>
+      </c>
+      <c r="B480" s="2">
+        <v>519</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B481" s="2">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="A482" s="2">
-        <v>62</v>
-      </c>
-      <c r="B482" s="2">
-        <v>11</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -13070,7 +13070,7 @@
         <v>62</v>
       </c>
       <c r="B483" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>9</v>
@@ -13081,7 +13081,7 @@
         <v>62</v>
       </c>
       <c r="B484" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>9</v>
@@ -13092,7 +13092,7 @@
         <v>62</v>
       </c>
       <c r="B485" s="2">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>9</v>
@@ -13103,7 +13103,7 @@
         <v>62</v>
       </c>
       <c r="B486" s="2">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>9</v>
@@ -13114,7 +13114,7 @@
         <v>62</v>
       </c>
       <c r="B487" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>9</v>
@@ -13125,31 +13125,31 @@
         <v>62</v>
       </c>
       <c r="B488" s="2">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C488" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2">
+        <v>62</v>
+      </c>
+      <c r="B489" s="2">
+        <v>231</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B490" s="2">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="2">
-        <v>63</v>
-      </c>
-      <c r="B491" s="2">
-        <v>51</v>
-      </c>
-      <c r="C491" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13158,7 +13158,7 @@
         <v>63</v>
       </c>
       <c r="B492" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>9</v>
@@ -13169,7 +13169,7 @@
         <v>63</v>
       </c>
       <c r="B493" s="2">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>9</v>
@@ -13180,7 +13180,7 @@
         <v>63</v>
       </c>
       <c r="B494" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
@@ -13191,7 +13191,7 @@
         <v>63</v>
       </c>
       <c r="B495" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>9</v>
@@ -13202,31 +13202,31 @@
         <v>63</v>
       </c>
       <c r="B496" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C496" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2">
+        <v>63</v>
+      </c>
+      <c r="B497" s="2">
+        <v>66</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B498" s="2">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" s="2">
-        <v>65</v>
-      </c>
-      <c r="B499" s="2">
-        <v>16</v>
-      </c>
-      <c r="C499" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13235,7 +13235,7 @@
         <v>65</v>
       </c>
       <c r="B500" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
@@ -13246,7 +13246,7 @@
         <v>65</v>
       </c>
       <c r="B501" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
@@ -13257,7 +13257,7 @@
         <v>65</v>
       </c>
       <c r="B502" s="2">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>65</v>
       </c>
       <c r="B503" s="2">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>9</v>
@@ -13279,31 +13279,31 @@
         <v>65</v>
       </c>
       <c r="B504" s="2">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C504" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2">
+        <v>65</v>
+      </c>
+      <c r="B505" s="2">
+        <v>297</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B506" s="2">
-        <v>119</v>
+        <v>424</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" s="2">
-        <v>76</v>
-      </c>
-      <c r="B507" s="2">
-        <v>131</v>
-      </c>
-      <c r="C507" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13312,7 +13312,7 @@
         <v>76</v>
       </c>
       <c r="B508" s="2">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
@@ -13323,7 +13323,7 @@
         <v>76</v>
       </c>
       <c r="B509" s="2">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
@@ -13334,7 +13334,7 @@
         <v>76</v>
       </c>
       <c r="B510" s="2">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -13345,7 +13345,7 @@
         <v>76</v>
       </c>
       <c r="B511" s="2">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>76</v>
       </c>
       <c r="B512" s="2">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -13367,31 +13367,31 @@
         <v>76</v>
       </c>
       <c r="B513" s="2">
-        <v>539</v>
+        <v>244</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>76</v>
+      </c>
+      <c r="B514" s="2">
+        <v>429</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B515" s="2">
-        <v>20</v>
+        <v>530</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="A516" s="2">
-        <v>77</v>
-      </c>
-      <c r="B516" s="2">
-        <v>21</v>
-      </c>
-      <c r="C516" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13400,7 +13400,7 @@
         <v>77</v>
       </c>
       <c r="B517" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>77</v>
       </c>
       <c r="B518" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="B519" s="2">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
@@ -13433,7 +13433,7 @@
         <v>77</v>
       </c>
       <c r="B520" s="2">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>77</v>
       </c>
       <c r="B521" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>9</v>
@@ -13455,31 +13455,31 @@
         <v>77</v>
       </c>
       <c r="B522" s="2">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>77</v>
+      </c>
+      <c r="B523" s="2">
+        <v>220</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B524" s="2">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="2">
-        <v>78</v>
-      </c>
-      <c r="B525" s="2">
-        <v>37</v>
-      </c>
-      <c r="C525" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
         <v>78</v>
       </c>
       <c r="B526" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
@@ -13499,7 +13499,7 @@
         <v>78</v>
       </c>
       <c r="B527" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>9</v>
@@ -13510,7 +13510,7 @@
         <v>78</v>
       </c>
       <c r="B528" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>78</v>
       </c>
       <c r="B529" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>9</v>
@@ -13532,31 +13532,31 @@
         <v>78</v>
       </c>
       <c r="B530" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>78</v>
+      </c>
+      <c r="B531" s="2">
+        <v>48</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B532" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="2">
-        <v>80</v>
-      </c>
-      <c r="B533" s="2">
-        <v>7</v>
-      </c>
-      <c r="C533" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
         <v>80</v>
       </c>
       <c r="B534" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>9</v>
@@ -13576,7 +13576,7 @@
         <v>80</v>
       </c>
       <c r="B535" s="2">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>9</v>
@@ -13587,7 +13587,7 @@
         <v>80</v>
       </c>
       <c r="B536" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>9</v>
@@ -13598,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="B537" s="2">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>9</v>
@@ -13609,20 +13609,20 @@
         <v>80</v>
       </c>
       <c r="B538" s="2">
+        <v>298</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>80</v>
+      </c>
+      <c r="B539" s="2">
         <v>307</v>
       </c>
-      <c r="C538" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="2">
-        <v>91</v>
-      </c>
-      <c r="B540" s="2">
-        <v>35</v>
-      </c>
-      <c r="C540" s="2" t="s">
+      <c r="C539" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
         <v>91</v>
       </c>
       <c r="B541" s="2">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>91</v>
       </c>
       <c r="B542" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>9</v>
@@ -13653,7 +13653,7 @@
         <v>91</v>
       </c>
       <c r="B543" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>9</v>
@@ -13664,7 +13664,7 @@
         <v>91</v>
       </c>
       <c r="B544" s="2">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13675,7 +13675,7 @@
         <v>91</v>
       </c>
       <c r="B545" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>9</v>
@@ -13686,7 +13686,7 @@
         <v>91</v>
       </c>
       <c r="B546" s="2">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>91</v>
       </c>
       <c r="B547" s="2">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>91</v>
       </c>
       <c r="B548" s="2">
-        <v>178</v>
+        <v>539</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>9</v>
@@ -13719,7 +13719,7 @@
         <v>91</v>
       </c>
       <c r="B549" s="2">
-        <v>229</v>
+        <v>540</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>9</v>
@@ -13730,7 +13730,7 @@
         <v>92</v>
       </c>
       <c r="B551" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>9</v>
@@ -13741,7 +13741,7 @@
         <v>92</v>
       </c>
       <c r="B552" s="2">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>9</v>
@@ -13752,7 +13752,7 @@
         <v>92</v>
       </c>
       <c r="B553" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>9</v>
@@ -13763,7 +13763,7 @@
         <v>92</v>
       </c>
       <c r="B554" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>9</v>
@@ -13774,7 +13774,7 @@
         <v>92</v>
       </c>
       <c r="B555" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>9</v>
@@ -13785,7 +13785,7 @@
         <v>92</v>
       </c>
       <c r="B556" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>9</v>
@@ -13796,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="B557" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>9</v>
@@ -13807,7 +13807,7 @@
         <v>92</v>
       </c>
       <c r="B558" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>9</v>

--- a/Back-End/Results_Allocation.xlsx
+++ b/Back-End/Results_Allocation.xlsx
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2897149570</v>
+        <v>7796495360</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2288,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="2">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="2">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2344,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="D144" s="2">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="2">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2456,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="2">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="D158" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="D162" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="2">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="2">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2918,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="2">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="2">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="D247" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="D269" s="2">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4150,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="D270" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4332,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="D283" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="D300" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4682,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="D308" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6334,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="D426" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6362,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6432,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="D433" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6446,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="D434" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6460,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="D435" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6516,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="D439" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6880,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="D465" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="D466" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7104,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="D481" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7174,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="D486" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7188,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="D487" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7202,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="D488" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7328,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="D497" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7762,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="D528" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="D529" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7804,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="D531" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7818,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="D532" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7832,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="D533" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7860,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="D535" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="D543" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -7986,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="D544" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8000,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="D545" s="2">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8014,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="D546" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="D547" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2897149570</v>
+        <v>7796495360</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -8109,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -8120,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>524</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>526</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -8175,20 +8175,20 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>527</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>528</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>187</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>160</v>
+        <v>434</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -8241,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>262</v>
+        <v>526</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>265</v>
+        <v>527</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -8263,20 +8263,20 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>303</v>
+        <v>528</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>423</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -8296,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -8307,7 +8307,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -8318,7 +8318,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -8329,7 +8329,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="2">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -8340,7 +8340,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -8351,54 +8351,54 @@
         <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>121</v>
+        <v>523</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2">
-        <v>178</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2">
-        <v>541</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>542</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>346</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="2">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -8439,7 +8439,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -8450,7 +8450,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="2">
-        <v>157</v>
+        <v>476</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -8461,7 +8461,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>215</v>
+        <v>477</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -8472,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>223</v>
+        <v>478</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -8483,7 +8483,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -8494,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="2">
-        <v>394</v>
+        <v>482</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -8505,7 +8505,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -8516,7 +8516,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="2">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -8538,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -8549,7 +8549,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -8560,7 +8560,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="2">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -8571,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="2">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -8582,7 +8582,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -8593,7 +8593,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -8604,7 +8604,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="2">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -8626,29 +8626,18 @@
         <v>17</v>
       </c>
       <c r="B58" s="2">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>17</v>
-      </c>
-      <c r="B59" s="2">
-        <v>516</v>
-      </c>
-      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" s="2">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -8656,10 +8645,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="2">
-        <v>533</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -8667,12 +8656,23 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="2">
-        <v>537</v>
+        <v>453</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2">
+        <v>455</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2">
-        <v>278</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -8692,7 +8692,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="2">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -8703,7 +8703,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -8714,7 +8714,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -8725,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -8736,7 +8736,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
@@ -8747,7 +8747,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -8769,7 +8769,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -8780,7 +8780,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>10</v>
@@ -8791,7 +8791,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -8802,7 +8802,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -8813,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -8824,7 +8824,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -8835,7 +8835,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -8846,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
@@ -8868,7 +8868,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
@@ -8879,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="2">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -8890,29 +8890,18 @@
         <v>18</v>
       </c>
       <c r="B83" s="2">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
-        <v>18</v>
-      </c>
-      <c r="B84" s="2">
-        <v>473</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B85" s="2">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>10</v>
@@ -8920,10 +8909,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B86" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -8931,12 +8920,23 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B87" s="2">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>20</v>
+      </c>
+      <c r="B88" s="2">
+        <v>425</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>10</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -8967,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="B91" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -8978,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="B93" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -9000,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -9011,7 +9011,7 @@
         <v>20</v>
       </c>
       <c r="B95" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -9022,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -9033,7 +9033,7 @@
         <v>20</v>
       </c>
       <c r="B97" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -9044,7 +9044,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -9055,7 +9055,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -9066,7 +9066,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -9077,7 +9077,7 @@
         <v>20</v>
       </c>
       <c r="B101" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -9088,7 +9088,7 @@
         <v>20</v>
       </c>
       <c r="B102" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
@@ -9099,7 +9099,7 @@
         <v>20</v>
       </c>
       <c r="B103" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
@@ -9110,7 +9110,7 @@
         <v>20</v>
       </c>
       <c r="B104" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
@@ -9121,7 +9121,7 @@
         <v>20</v>
       </c>
       <c r="B105" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -9132,7 +9132,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="2">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
@@ -9143,7 +9143,7 @@
         <v>20</v>
       </c>
       <c r="B107" s="2">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -9154,29 +9154,18 @@
         <v>20</v>
       </c>
       <c r="B108" s="2">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2">
-        <v>20</v>
-      </c>
-      <c r="B109" s="2">
-        <v>483</v>
-      </c>
-      <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B110" s="2">
-        <v>486</v>
+        <v>287</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
@@ -9184,10 +9173,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B111" s="2">
-        <v>492</v>
+        <v>340</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -9195,12 +9184,23 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B112" s="2">
-        <v>517</v>
+        <v>395</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>21</v>
+      </c>
+      <c r="B113" s="2">
+        <v>398</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="2">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -9220,7 +9220,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="2">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -9231,7 +9231,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -9242,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
@@ -9253,7 +9253,7 @@
         <v>21</v>
       </c>
       <c r="B118" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
@@ -9264,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -9275,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="B120" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
@@ -9297,7 +9297,7 @@
         <v>21</v>
       </c>
       <c r="B122" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -9308,7 +9308,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -9319,7 +9319,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
@@ -9330,7 +9330,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
@@ -9352,7 +9352,7 @@
         <v>21</v>
       </c>
       <c r="B127" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>10</v>
@@ -9363,7 +9363,7 @@
         <v>21</v>
       </c>
       <c r="B128" s="2">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
@@ -9374,7 +9374,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="2">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
@@ -9385,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -9396,7 +9396,7 @@
         <v>21</v>
       </c>
       <c r="B131" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
@@ -9407,7 +9407,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -9418,7 +9418,7 @@
         <v>21</v>
       </c>
       <c r="B133" s="2">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -9429,7 +9429,7 @@
         <v>21</v>
       </c>
       <c r="B134" s="2">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -9440,29 +9440,18 @@
         <v>21</v>
       </c>
       <c r="B135" s="2">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
-        <v>21</v>
-      </c>
-      <c r="B136" s="2">
-        <v>452</v>
-      </c>
-      <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B137" s="2">
-        <v>497</v>
+        <v>195</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
@@ -9470,10 +9459,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B138" s="2">
-        <v>499</v>
+        <v>285</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -9481,12 +9470,23 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B139" s="2">
-        <v>514</v>
+        <v>296</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>22</v>
+      </c>
+      <c r="B140" s="2">
+        <v>314</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="2">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -9506,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="2">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -9517,7 +9517,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="2">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="2">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
@@ -9539,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B145" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
@@ -9550,7 +9550,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
@@ -9561,7 +9561,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -9572,7 +9572,7 @@
         <v>22</v>
       </c>
       <c r="B148" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -9583,7 +9583,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
@@ -9594,7 +9594,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>10</v>
@@ -9605,7 +9605,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -9616,7 +9616,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>10</v>
@@ -9627,7 +9627,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>10</v>
@@ -9638,7 +9638,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -9649,7 +9649,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>
@@ -9660,7 +9660,7 @@
         <v>22</v>
       </c>
       <c r="B156" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
@@ -9671,7 +9671,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -9682,7 +9682,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -9693,7 +9693,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>10</v>
@@ -9704,7 +9704,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>10</v>
@@ -9715,7 +9715,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -9726,7 +9726,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
@@ -9737,29 +9737,18 @@
         <v>22</v>
       </c>
       <c r="B163" s="2">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2">
-        <v>22</v>
-      </c>
-      <c r="B164" s="2">
-        <v>391</v>
-      </c>
-      <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B165" s="2">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>10</v>
@@ -9767,10 +9756,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B166" s="2">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>10</v>
@@ -9778,12 +9767,23 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B167" s="2">
-        <v>494</v>
+        <v>350</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>23</v>
+      </c>
+      <c r="B168" s="2">
+        <v>351</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9792,7 +9792,7 @@
         <v>23</v>
       </c>
       <c r="B169" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -9803,7 +9803,7 @@
         <v>23</v>
       </c>
       <c r="B170" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -9814,7 +9814,7 @@
         <v>23</v>
       </c>
       <c r="B171" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>10</v>
@@ -9825,7 +9825,7 @@
         <v>23</v>
       </c>
       <c r="B172" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>10</v>
@@ -9836,7 +9836,7 @@
         <v>23</v>
       </c>
       <c r="B173" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
@@ -9847,7 +9847,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>10</v>
@@ -9858,7 +9858,7 @@
         <v>23</v>
       </c>
       <c r="B175" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>
@@ -9869,7 +9869,7 @@
         <v>23</v>
       </c>
       <c r="B176" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>10</v>
@@ -9880,7 +9880,7 @@
         <v>23</v>
       </c>
       <c r="B177" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>10</v>
@@ -9891,7 +9891,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>10</v>
@@ -9902,7 +9902,7 @@
         <v>23</v>
       </c>
       <c r="B179" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>10</v>
@@ -9913,7 +9913,7 @@
         <v>23</v>
       </c>
       <c r="B180" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>10</v>
@@ -9924,7 +9924,7 @@
         <v>23</v>
       </c>
       <c r="B181" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>10</v>
@@ -9935,7 +9935,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
@@ -9946,7 +9946,7 @@
         <v>23</v>
       </c>
       <c r="B183" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>10</v>
@@ -9957,7 +9957,7 @@
         <v>23</v>
       </c>
       <c r="B184" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -9968,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="B185" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
@@ -9979,7 +9979,7 @@
         <v>23</v>
       </c>
       <c r="B186" s="2">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>10</v>
@@ -9990,7 +9990,7 @@
         <v>23</v>
       </c>
       <c r="B187" s="2">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>10</v>
@@ -10001,29 +10001,18 @@
         <v>23</v>
       </c>
       <c r="B188" s="2">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
-        <v>23</v>
-      </c>
-      <c r="B189" s="2">
-        <v>402</v>
-      </c>
-      <c r="C189" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B190" s="2">
-        <v>418</v>
+        <v>246</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>10</v>
@@ -10031,10 +10020,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B191" s="2">
-        <v>419</v>
+        <v>315</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>10</v>
@@ -10042,12 +10031,23 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B192" s="2">
-        <v>510</v>
+        <v>316</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>24</v>
+      </c>
+      <c r="B193" s="2">
+        <v>317</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
         <v>24</v>
       </c>
       <c r="B194" s="2">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>10</v>
@@ -10067,7 +10067,7 @@
         <v>24</v>
       </c>
       <c r="B195" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -10078,7 +10078,7 @@
         <v>24</v>
       </c>
       <c r="B196" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
@@ -10089,7 +10089,7 @@
         <v>24</v>
       </c>
       <c r="B197" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -10100,7 +10100,7 @@
         <v>24</v>
       </c>
       <c r="B198" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -10111,7 +10111,7 @@
         <v>24</v>
       </c>
       <c r="B199" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
@@ -10122,7 +10122,7 @@
         <v>24</v>
       </c>
       <c r="B200" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -10133,7 +10133,7 @@
         <v>24</v>
       </c>
       <c r="B201" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -10144,7 +10144,7 @@
         <v>24</v>
       </c>
       <c r="B202" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -10155,7 +10155,7 @@
         <v>24</v>
       </c>
       <c r="B203" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -10166,7 +10166,7 @@
         <v>24</v>
       </c>
       <c r="B204" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -10177,7 +10177,7 @@
         <v>24</v>
       </c>
       <c r="B205" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -10188,7 +10188,7 @@
         <v>24</v>
       </c>
       <c r="B206" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -10199,7 +10199,7 @@
         <v>24</v>
       </c>
       <c r="B207" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -10210,7 +10210,7 @@
         <v>24</v>
       </c>
       <c r="B208" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -10221,7 +10221,7 @@
         <v>24</v>
       </c>
       <c r="B209" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -10232,7 +10232,7 @@
         <v>24</v>
       </c>
       <c r="B210" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -10243,7 +10243,7 @@
         <v>24</v>
       </c>
       <c r="B211" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -10254,7 +10254,7 @@
         <v>24</v>
       </c>
       <c r="B212" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -10265,7 +10265,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
@@ -10276,7 +10276,7 @@
         <v>24</v>
       </c>
       <c r="B214" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
@@ -10287,7 +10287,7 @@
         <v>24</v>
       </c>
       <c r="B215" s="2">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
@@ -10298,29 +10298,18 @@
         <v>24</v>
       </c>
       <c r="B216" s="2">
-        <v>343</v>
+        <v>518</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2">
-        <v>24</v>
-      </c>
-      <c r="B217" s="2">
-        <v>345</v>
-      </c>
-      <c r="C217" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B218" s="2">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -10328,10 +10317,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B219" s="2">
-        <v>508</v>
+        <v>200</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -10339,12 +10328,23 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B220" s="2">
-        <v>518</v>
+        <v>206</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>25</v>
+      </c>
+      <c r="B221" s="2">
+        <v>207</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
         <v>25</v>
       </c>
       <c r="B222" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -10364,7 +10364,7 @@
         <v>25</v>
       </c>
       <c r="B223" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -10375,7 +10375,7 @@
         <v>25</v>
       </c>
       <c r="B224" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -10386,7 +10386,7 @@
         <v>25</v>
       </c>
       <c r="B225" s="2">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
@@ -10397,7 +10397,7 @@
         <v>25</v>
       </c>
       <c r="B226" s="2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
@@ -10408,7 +10408,7 @@
         <v>25</v>
       </c>
       <c r="B227" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -10419,7 +10419,7 @@
         <v>25</v>
       </c>
       <c r="B228" s="2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
@@ -10430,7 +10430,7 @@
         <v>25</v>
       </c>
       <c r="B229" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
@@ -10441,7 +10441,7 @@
         <v>25</v>
       </c>
       <c r="B230" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
@@ -10452,7 +10452,7 @@
         <v>25</v>
       </c>
       <c r="B231" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
@@ -10463,7 +10463,7 @@
         <v>25</v>
       </c>
       <c r="B232" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
@@ -10474,7 +10474,7 @@
         <v>25</v>
       </c>
       <c r="B233" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
@@ -10485,7 +10485,7 @@
         <v>25</v>
       </c>
       <c r="B234" s="2">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
@@ -10496,7 +10496,7 @@
         <v>25</v>
       </c>
       <c r="B235" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
@@ -10507,7 +10507,7 @@
         <v>25</v>
       </c>
       <c r="B236" s="2">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -10518,7 +10518,7 @@
         <v>25</v>
       </c>
       <c r="B237" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
@@ -10529,7 +10529,7 @@
         <v>25</v>
       </c>
       <c r="B238" s="2">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="B239" s="2">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
@@ -10551,7 +10551,7 @@
         <v>25</v>
       </c>
       <c r="B240" s="2">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
@@ -10562,7 +10562,7 @@
         <v>25</v>
       </c>
       <c r="B241" s="2">
-        <v>313</v>
+        <v>532</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
@@ -10573,29 +10573,18 @@
         <v>25</v>
       </c>
       <c r="B242" s="2">
-        <v>370</v>
+        <v>535</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="2">
-        <v>25</v>
-      </c>
-      <c r="B243" s="2">
-        <v>379</v>
-      </c>
-      <c r="C243" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B244" s="2">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -10603,10 +10592,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B245" s="2">
-        <v>532</v>
+        <v>250</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -10614,12 +10603,23 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B246" s="2">
-        <v>535</v>
+        <v>255</v>
       </c>
       <c r="C246" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>27</v>
+      </c>
+      <c r="B247" s="2">
+        <v>258</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
         <v>27</v>
       </c>
       <c r="B248" s="2">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -10639,7 +10639,7 @@
         <v>27</v>
       </c>
       <c r="B249" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -10650,7 +10650,7 @@
         <v>27</v>
       </c>
       <c r="B250" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -10661,7 +10661,7 @@
         <v>27</v>
       </c>
       <c r="B251" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -10672,7 +10672,7 @@
         <v>27</v>
       </c>
       <c r="B252" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
@@ -10683,7 +10683,7 @@
         <v>27</v>
       </c>
       <c r="B253" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
@@ -10694,7 +10694,7 @@
         <v>27</v>
       </c>
       <c r="B254" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>27</v>
       </c>
       <c r="B255" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="B256" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -10727,7 +10727,7 @@
         <v>27</v>
       </c>
       <c r="B257" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -10738,7 +10738,7 @@
         <v>27</v>
       </c>
       <c r="B258" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
@@ -10749,7 +10749,7 @@
         <v>27</v>
       </c>
       <c r="B259" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>10</v>
@@ -10760,7 +10760,7 @@
         <v>27</v>
       </c>
       <c r="B260" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>10</v>
@@ -10771,7 +10771,7 @@
         <v>27</v>
       </c>
       <c r="B261" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
@@ -10782,7 +10782,7 @@
         <v>27</v>
       </c>
       <c r="B262" s="2">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
@@ -10793,7 +10793,7 @@
         <v>27</v>
       </c>
       <c r="B263" s="2">
-        <v>273</v>
+        <v>479</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>10</v>
@@ -10804,7 +10804,7 @@
         <v>27</v>
       </c>
       <c r="B264" s="2">
-        <v>274</v>
+        <v>490</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>10</v>
@@ -10815,7 +10815,7 @@
         <v>27</v>
       </c>
       <c r="B265" s="2">
-        <v>275</v>
+        <v>491</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>10</v>
@@ -10826,7 +10826,7 @@
         <v>27</v>
       </c>
       <c r="B266" s="2">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>10</v>
@@ -10837,7 +10837,7 @@
         <v>27</v>
       </c>
       <c r="B267" s="2">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>10</v>
@@ -10848,29 +10848,18 @@
         <v>27</v>
       </c>
       <c r="B268" s="2">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="2">
-        <v>27</v>
-      </c>
-      <c r="B269" s="2">
-        <v>491</v>
-      </c>
-      <c r="C269" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B270" s="2">
-        <v>495</v>
+        <v>218</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>10</v>
@@ -10878,10 +10867,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B271" s="2">
-        <v>501</v>
+        <v>221</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>10</v>
@@ -10889,12 +10878,23 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B272" s="2">
-        <v>536</v>
+        <v>222</v>
       </c>
       <c r="C272" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>28</v>
+      </c>
+      <c r="B273" s="2">
+        <v>224</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
         <v>28</v>
       </c>
       <c r="B274" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>10</v>
@@ -10914,7 +10914,7 @@
         <v>28</v>
       </c>
       <c r="B275" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>10</v>
@@ -10925,7 +10925,7 @@
         <v>28</v>
       </c>
       <c r="B276" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>10</v>
@@ -10936,7 +10936,7 @@
         <v>28</v>
       </c>
       <c r="B277" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>10</v>
@@ -10947,7 +10947,7 @@
         <v>28</v>
       </c>
       <c r="B278" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>10</v>
@@ -10958,7 +10958,7 @@
         <v>28</v>
       </c>
       <c r="B279" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>10</v>
@@ -10969,7 +10969,7 @@
         <v>28</v>
       </c>
       <c r="B280" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>10</v>
@@ -10980,7 +10980,7 @@
         <v>28</v>
       </c>
       <c r="B281" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>10</v>
@@ -10991,7 +10991,7 @@
         <v>28</v>
       </c>
       <c r="B282" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>10</v>
@@ -11002,7 +11002,7 @@
         <v>28</v>
       </c>
       <c r="B283" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>10</v>
@@ -11013,7 +11013,7 @@
         <v>28</v>
       </c>
       <c r="B284" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>10</v>
@@ -11024,7 +11024,7 @@
         <v>28</v>
       </c>
       <c r="B285" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>10</v>
@@ -11035,7 +11035,7 @@
         <v>28</v>
       </c>
       <c r="B286" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>10</v>
@@ -11046,7 +11046,7 @@
         <v>28</v>
       </c>
       <c r="B287" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>10</v>
@@ -11057,7 +11057,7 @@
         <v>28</v>
       </c>
       <c r="B288" s="2">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>10</v>
@@ -11068,7 +11068,7 @@
         <v>28</v>
       </c>
       <c r="B289" s="2">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>10</v>
@@ -11079,7 +11079,7 @@
         <v>28</v>
       </c>
       <c r="B290" s="2">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>10</v>
@@ -11090,7 +11090,7 @@
         <v>28</v>
       </c>
       <c r="B291" s="2">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>10</v>
@@ -11101,7 +11101,7 @@
         <v>28</v>
       </c>
       <c r="B292" s="2">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>10</v>
@@ -11112,29 +11112,18 @@
         <v>28</v>
       </c>
       <c r="B293" s="2">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="2">
-        <v>28</v>
-      </c>
-      <c r="B294" s="2">
-        <v>301</v>
-      </c>
-      <c r="C294" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B295" s="2">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>10</v>
@@ -11142,10 +11131,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B296" s="2">
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>10</v>
@@ -11153,12 +11142,23 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B297" s="2">
-        <v>531</v>
+        <v>210</v>
       </c>
       <c r="C297" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>29</v>
+      </c>
+      <c r="B298" s="2">
+        <v>211</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
         <v>29</v>
       </c>
       <c r="B299" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>10</v>
@@ -11178,7 +11178,7 @@
         <v>29</v>
       </c>
       <c r="B300" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>10</v>
@@ -11189,7 +11189,7 @@
         <v>29</v>
       </c>
       <c r="B301" s="2">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>10</v>
@@ -11200,7 +11200,7 @@
         <v>29</v>
       </c>
       <c r="B302" s="2">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>10</v>
@@ -11211,7 +11211,7 @@
         <v>29</v>
       </c>
       <c r="B303" s="2">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>10</v>
@@ -11222,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="B304" s="2">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>10</v>
@@ -11233,7 +11233,7 @@
         <v>29</v>
       </c>
       <c r="B305" s="2">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>10</v>
@@ -11244,7 +11244,7 @@
         <v>29</v>
       </c>
       <c r="B306" s="2">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>10</v>
@@ -11255,7 +11255,7 @@
         <v>29</v>
       </c>
       <c r="B307" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>10</v>
@@ -11266,7 +11266,7 @@
         <v>29</v>
       </c>
       <c r="B308" s="2">
-        <v>365</v>
+        <v>496</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>10</v>
@@ -11277,54 +11277,54 @@
         <v>29</v>
       </c>
       <c r="B309" s="2">
-        <v>369</v>
+        <v>534</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="2">
-        <v>29</v>
-      </c>
-      <c r="B310" s="2">
-        <v>396</v>
-      </c>
-      <c r="C310" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B311" s="2">
-        <v>400</v>
+        <v>161</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B312" s="2">
-        <v>496</v>
+        <v>189</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B313" s="2">
-        <v>534</v>
+        <v>241</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>31</v>
+      </c>
+      <c r="B314" s="2">
+        <v>265</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11332,7 +11332,7 @@
         <v>31</v>
       </c>
       <c r="B315" s="2">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -11343,7 +11343,7 @@
         <v>31</v>
       </c>
       <c r="B316" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
@@ -11354,7 +11354,7 @@
         <v>31</v>
       </c>
       <c r="B317" s="2">
-        <v>136</v>
+        <v>423</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
@@ -11365,65 +11365,65 @@
         <v>31</v>
       </c>
       <c r="B318" s="2">
-        <v>142</v>
+        <v>538</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="2">
-        <v>31</v>
-      </c>
-      <c r="B319" s="2">
-        <v>165</v>
-      </c>
-      <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B320" s="2">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B321" s="2">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B322" s="2">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B323" s="2">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>32</v>
+      </c>
+      <c r="B324" s="2">
+        <v>149</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -11431,7 +11431,7 @@
         <v>32</v>
       </c>
       <c r="B325" s="2">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>10</v>
@@ -11442,7 +11442,7 @@
         <v>32</v>
       </c>
       <c r="B326" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>10</v>
@@ -11453,7 +11453,7 @@
         <v>32</v>
       </c>
       <c r="B327" s="2">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>10</v>
@@ -11464,7 +11464,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>10</v>
@@ -11475,7 +11475,7 @@
         <v>32</v>
       </c>
       <c r="B329" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>10</v>
@@ -11486,7 +11486,7 @@
         <v>32</v>
       </c>
       <c r="B330" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>10</v>
@@ -11497,7 +11497,7 @@
         <v>32</v>
       </c>
       <c r="B331" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>10</v>
@@ -11508,7 +11508,7 @@
         <v>32</v>
       </c>
       <c r="B332" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>10</v>
@@ -11519,7 +11519,7 @@
         <v>32</v>
       </c>
       <c r="B333" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>10</v>
@@ -11530,7 +11530,7 @@
         <v>32</v>
       </c>
       <c r="B334" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>10</v>
@@ -11541,7 +11541,7 @@
         <v>32</v>
       </c>
       <c r="B335" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>10</v>
@@ -11552,7 +11552,7 @@
         <v>32</v>
       </c>
       <c r="B336" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>10</v>
@@ -11563,7 +11563,7 @@
         <v>32</v>
       </c>
       <c r="B337" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>10</v>
@@ -11574,7 +11574,7 @@
         <v>32</v>
       </c>
       <c r="B338" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>10</v>
@@ -11585,7 +11585,7 @@
         <v>32</v>
       </c>
       <c r="B339" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>10</v>
@@ -11596,7 +11596,7 @@
         <v>32</v>
       </c>
       <c r="B340" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>10</v>
@@ -11607,7 +11607,7 @@
         <v>32</v>
       </c>
       <c r="B341" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>10</v>
@@ -11618,7 +11618,7 @@
         <v>32</v>
       </c>
       <c r="B342" s="2">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>10</v>
@@ -11629,7 +11629,7 @@
         <v>32</v>
       </c>
       <c r="B343" s="2">
-        <v>204</v>
+        <v>392</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>10</v>
@@ -11640,29 +11640,18 @@
         <v>32</v>
       </c>
       <c r="B344" s="2">
-        <v>205</v>
+        <v>492</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="2">
-        <v>32</v>
-      </c>
-      <c r="B345" s="2">
-        <v>214</v>
-      </c>
-      <c r="C345" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B346" s="2">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>10</v>
@@ -11670,10 +11659,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B347" s="2">
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>10</v>
@@ -11681,10 +11670,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B348" s="2">
-        <v>421</v>
+        <v>103</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>10</v>
@@ -11692,12 +11681,23 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B349" s="2">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="C349" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>33</v>
+      </c>
+      <c r="B350" s="2">
+        <v>107</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
         <v>33</v>
       </c>
       <c r="B351" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>10</v>
@@ -11717,7 +11717,7 @@
         <v>33</v>
       </c>
       <c r="B352" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>10</v>
@@ -11728,7 +11728,7 @@
         <v>33</v>
       </c>
       <c r="B353" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>10</v>
@@ -11739,7 +11739,7 @@
         <v>33</v>
       </c>
       <c r="B354" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>10</v>
@@ -11750,7 +11750,7 @@
         <v>33</v>
       </c>
       <c r="B355" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>10</v>
@@ -11761,7 +11761,7 @@
         <v>33</v>
       </c>
       <c r="B356" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>10</v>
@@ -11772,7 +11772,7 @@
         <v>33</v>
       </c>
       <c r="B357" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>10</v>
@@ -11783,7 +11783,7 @@
         <v>33</v>
       </c>
       <c r="B358" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>10</v>
@@ -11794,7 +11794,7 @@
         <v>33</v>
       </c>
       <c r="B359" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>10</v>
@@ -11805,7 +11805,7 @@
         <v>33</v>
       </c>
       <c r="B360" s="2">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>10</v>
@@ -11816,7 +11816,7 @@
         <v>33</v>
       </c>
       <c r="B361" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>10</v>
@@ -11827,7 +11827,7 @@
         <v>33</v>
       </c>
       <c r="B362" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>10</v>
@@ -11838,7 +11838,7 @@
         <v>33</v>
       </c>
       <c r="B363" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>10</v>
@@ -11849,7 +11849,7 @@
         <v>33</v>
       </c>
       <c r="B364" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>10</v>
@@ -11860,7 +11860,7 @@
         <v>33</v>
       </c>
       <c r="B365" s="2">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>10</v>
@@ -11871,7 +11871,7 @@
         <v>33</v>
       </c>
       <c r="B366" s="2">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>10</v>
@@ -11882,7 +11882,7 @@
         <v>33</v>
       </c>
       <c r="B367" s="2">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>10</v>
@@ -11893,7 +11893,7 @@
         <v>33</v>
       </c>
       <c r="B368" s="2">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>10</v>
@@ -11904,29 +11904,18 @@
         <v>33</v>
       </c>
       <c r="B369" s="2">
-        <v>153</v>
+        <v>521</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="2">
-        <v>33</v>
-      </c>
-      <c r="B370" s="2">
-        <v>191</v>
-      </c>
-      <c r="C370" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B371" s="2">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>10</v>
@@ -11934,10 +11923,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B372" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>10</v>
@@ -11945,10 +11934,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B373" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>10</v>
@@ -11956,12 +11945,23 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B374" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
       <c r="C374" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>35</v>
+      </c>
+      <c r="B375" s="2">
+        <v>82</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
         <v>35</v>
       </c>
       <c r="B376" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>10</v>
@@ -11981,7 +11981,7 @@
         <v>35</v>
       </c>
       <c r="B377" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>10</v>
@@ -11992,7 +11992,7 @@
         <v>35</v>
       </c>
       <c r="B378" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>10</v>
@@ -12003,7 +12003,7 @@
         <v>35</v>
       </c>
       <c r="B379" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>10</v>
@@ -12014,7 +12014,7 @@
         <v>35</v>
       </c>
       <c r="B380" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>10</v>
@@ -12025,7 +12025,7 @@
         <v>35</v>
       </c>
       <c r="B381" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>10</v>
@@ -12036,7 +12036,7 @@
         <v>35</v>
       </c>
       <c r="B382" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>10</v>
@@ -12047,7 +12047,7 @@
         <v>35</v>
       </c>
       <c r="B383" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>10</v>
@@ -12058,7 +12058,7 @@
         <v>35</v>
       </c>
       <c r="B384" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>10</v>
@@ -12069,7 +12069,7 @@
         <v>35</v>
       </c>
       <c r="B385" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>10</v>
@@ -12080,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="B386" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>10</v>
@@ -12091,7 +12091,7 @@
         <v>35</v>
       </c>
       <c r="B387" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>10</v>
@@ -12102,7 +12102,7 @@
         <v>35</v>
       </c>
       <c r="B388" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>10</v>
@@ -12113,7 +12113,7 @@
         <v>35</v>
       </c>
       <c r="B389" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>10</v>
@@ -12124,7 +12124,7 @@
         <v>35</v>
       </c>
       <c r="B390" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>10</v>
@@ -12135,7 +12135,7 @@
         <v>35</v>
       </c>
       <c r="B391" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>10</v>
@@ -12146,7 +12146,7 @@
         <v>35</v>
       </c>
       <c r="B392" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>10</v>
@@ -12157,29 +12157,18 @@
         <v>35</v>
       </c>
       <c r="B393" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="2">
-        <v>35</v>
-      </c>
-      <c r="B394" s="2">
-        <v>150</v>
-      </c>
-      <c r="C394" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B395" s="2">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>10</v>
@@ -12187,10 +12176,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B396" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>10</v>
@@ -12198,10 +12187,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B397" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>10</v>
@@ -12209,12 +12198,23 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B398" s="2">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="C398" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>36</v>
+      </c>
+      <c r="B399" s="2">
+        <v>77</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>36</v>
       </c>
       <c r="B400" s="2">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>10</v>
@@ -12234,7 +12234,7 @@
         <v>36</v>
       </c>
       <c r="B401" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>10</v>
@@ -12245,7 +12245,7 @@
         <v>36</v>
       </c>
       <c r="B402" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>10</v>
@@ -12256,7 +12256,7 @@
         <v>36</v>
       </c>
       <c r="B403" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>10</v>
@@ -12267,7 +12267,7 @@
         <v>36</v>
       </c>
       <c r="B404" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>10</v>
@@ -12278,7 +12278,7 @@
         <v>36</v>
       </c>
       <c r="B405" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>10</v>
@@ -12289,7 +12289,7 @@
         <v>36</v>
       </c>
       <c r="B406" s="2">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>10</v>
@@ -12300,7 +12300,7 @@
         <v>36</v>
       </c>
       <c r="B407" s="2">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>10</v>
@@ -12311,7 +12311,7 @@
         <v>36</v>
       </c>
       <c r="B408" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>10</v>
@@ -12322,7 +12322,7 @@
         <v>36</v>
       </c>
       <c r="B409" s="2">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>10</v>
@@ -12333,7 +12333,7 @@
         <v>36</v>
       </c>
       <c r="B410" s="2">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>10</v>
@@ -12344,7 +12344,7 @@
         <v>36</v>
       </c>
       <c r="B411" s="2">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>10</v>
@@ -12355,7 +12355,7 @@
         <v>36</v>
       </c>
       <c r="B412" s="2">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>10</v>
@@ -12366,7 +12366,7 @@
         <v>36</v>
       </c>
       <c r="B413" s="2">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>10</v>
@@ -12377,7 +12377,7 @@
         <v>36</v>
       </c>
       <c r="B414" s="2">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>10</v>
@@ -12388,7 +12388,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="2">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>10</v>
@@ -12399,7 +12399,7 @@
         <v>36</v>
       </c>
       <c r="B416" s="2">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>10</v>
@@ -12410,65 +12410,65 @@
         <v>36</v>
       </c>
       <c r="B417" s="2">
-        <v>276</v>
+        <v>522</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="2">
-        <v>36</v>
-      </c>
-      <c r="B418" s="2">
-        <v>279</v>
-      </c>
-      <c r="C418" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B419" s="2">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B420" s="2">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B421" s="2">
-        <v>282</v>
+        <v>127</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B422" s="2">
-        <v>522</v>
+        <v>133</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>46</v>
+      </c>
+      <c r="B423" s="2">
+        <v>177</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -12476,7 +12476,7 @@
         <v>46</v>
       </c>
       <c r="B424" s="2">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -12487,7 +12487,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="2">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -12498,29 +12498,18 @@
         <v>46</v>
       </c>
       <c r="B426" s="2">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="2">
-        <v>46</v>
-      </c>
-      <c r="B427" s="2">
-        <v>167</v>
-      </c>
-      <c r="C427" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B428" s="2">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
@@ -12528,10 +12517,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B429" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
@@ -12539,10 +12528,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B430" s="2">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
@@ -12550,12 +12539,23 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B431" s="2">
-        <v>529</v>
+        <v>244</v>
       </c>
       <c r="C431" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>47</v>
+      </c>
+      <c r="B432" s="2">
+        <v>256</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
         <v>47</v>
       </c>
       <c r="B433" s="2">
-        <v>126</v>
+        <v>429</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
@@ -12575,7 +12575,7 @@
         <v>47</v>
       </c>
       <c r="B434" s="2">
-        <v>144</v>
+        <v>530</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
@@ -12586,7 +12586,7 @@
         <v>47</v>
       </c>
       <c r="B435" s="2">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -12597,7 +12597,7 @@
         <v>47</v>
       </c>
       <c r="B436" s="2">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
@@ -12608,31 +12608,31 @@
         <v>47</v>
       </c>
       <c r="B437" s="2">
-        <v>304</v>
+        <v>542</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="A438" s="2">
-        <v>47</v>
-      </c>
-      <c r="B438" s="2">
-        <v>305</v>
-      </c>
-      <c r="C438" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B439" s="2">
-        <v>538</v>
+        <v>15</v>
       </c>
       <c r="C439" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>48</v>
+      </c>
+      <c r="B440" s="2">
+        <v>44</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
         <v>48</v>
       </c>
       <c r="B441" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -12652,7 +12652,7 @@
         <v>48</v>
       </c>
       <c r="B442" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>48</v>
       </c>
       <c r="B443" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>48</v>
       </c>
       <c r="B444" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
@@ -12685,29 +12685,18 @@
         <v>48</v>
       </c>
       <c r="B445" s="2">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="2">
-        <v>48</v>
-      </c>
-      <c r="B446" s="2">
-        <v>55</v>
-      </c>
-      <c r="C446" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B447" s="2">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
@@ -12715,13 +12704,24 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B449" s="2">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>61</v>
+      </c>
+      <c r="B450" s="2">
+        <v>75</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -12729,7 +12729,7 @@
         <v>61</v>
       </c>
       <c r="B451" s="2">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>10</v>
@@ -12740,7 +12740,7 @@
         <v>61</v>
       </c>
       <c r="B452" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>10</v>
@@ -12751,7 +12751,7 @@
         <v>61</v>
       </c>
       <c r="B453" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>10</v>
@@ -12762,7 +12762,7 @@
         <v>61</v>
       </c>
       <c r="B454" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>10</v>
@@ -12773,7 +12773,7 @@
         <v>61</v>
       </c>
       <c r="B455" s="2">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>10</v>
@@ -12784,7 +12784,7 @@
         <v>61</v>
       </c>
       <c r="B456" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>10</v>
@@ -12795,7 +12795,7 @@
         <v>61</v>
       </c>
       <c r="B457" s="2">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>10</v>
@@ -12806,7 +12806,7 @@
         <v>61</v>
       </c>
       <c r="B458" s="2">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>10</v>
@@ -12817,7 +12817,7 @@
         <v>61</v>
       </c>
       <c r="B459" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>10</v>
@@ -12828,7 +12828,7 @@
         <v>61</v>
       </c>
       <c r="B460" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>10</v>
@@ -12839,7 +12839,7 @@
         <v>61</v>
       </c>
       <c r="B461" s="2">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>10</v>
@@ -12850,7 +12850,7 @@
         <v>61</v>
       </c>
       <c r="B462" s="2">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>10</v>
@@ -12861,7 +12861,7 @@
         <v>61</v>
       </c>
       <c r="B463" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>10</v>
@@ -12872,7 +12872,7 @@
         <v>61</v>
       </c>
       <c r="B464" s="2">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>10</v>
@@ -12883,7 +12883,7 @@
         <v>61</v>
       </c>
       <c r="B465" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>10</v>
@@ -12894,7 +12894,7 @@
         <v>61</v>
       </c>
       <c r="B466" s="2">
-        <v>339</v>
+        <v>454</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>10</v>
@@ -12905,7 +12905,7 @@
         <v>61</v>
       </c>
       <c r="B467" s="2">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>10</v>
@@ -12916,7 +12916,7 @@
         <v>61</v>
       </c>
       <c r="B468" s="2">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>10</v>
@@ -12927,7 +12927,7 @@
         <v>61</v>
       </c>
       <c r="B469" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>10</v>
@@ -12938,7 +12938,7 @@
         <v>61</v>
       </c>
       <c r="B470" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>10</v>
@@ -12949,7 +12949,7 @@
         <v>61</v>
       </c>
       <c r="B471" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>10</v>
@@ -12960,7 +12960,7 @@
         <v>61</v>
       </c>
       <c r="B472" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>10</v>
@@ -12971,7 +12971,7 @@
         <v>61</v>
       </c>
       <c r="B473" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>10</v>
@@ -12982,7 +12982,7 @@
         <v>61</v>
       </c>
       <c r="B474" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>10</v>
@@ -12993,7 +12993,7 @@
         <v>61</v>
       </c>
       <c r="B475" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>10</v>
@@ -13004,7 +13004,7 @@
         <v>61</v>
       </c>
       <c r="B476" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>10</v>
@@ -13015,7 +13015,7 @@
         <v>61</v>
       </c>
       <c r="B477" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>10</v>
@@ -13026,7 +13026,7 @@
         <v>61</v>
       </c>
       <c r="B478" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>10</v>
@@ -13037,32 +13037,32 @@
         <v>61</v>
       </c>
       <c r="B479" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="2">
-        <v>61</v>
-      </c>
-      <c r="B480" s="2">
-        <v>519</v>
-      </c>
-      <c r="C480" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B481" s="2">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>62</v>
+      </c>
+      <c r="B482" s="2">
+        <v>11</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -13070,7 +13070,7 @@
         <v>62</v>
       </c>
       <c r="B483" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>9</v>
@@ -13081,7 +13081,7 @@
         <v>62</v>
       </c>
       <c r="B484" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>9</v>
@@ -13092,7 +13092,7 @@
         <v>62</v>
       </c>
       <c r="B485" s="2">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>9</v>
@@ -13103,7 +13103,7 @@
         <v>62</v>
       </c>
       <c r="B486" s="2">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>9</v>
@@ -13114,7 +13114,7 @@
         <v>62</v>
       </c>
       <c r="B487" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>9</v>
@@ -13125,31 +13125,31 @@
         <v>62</v>
       </c>
       <c r="B488" s="2">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="2">
-        <v>62</v>
-      </c>
-      <c r="B489" s="2">
-        <v>231</v>
-      </c>
-      <c r="C489" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B490" s="2">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="C490" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2">
+        <v>63</v>
+      </c>
+      <c r="B491" s="2">
+        <v>51</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13158,7 +13158,7 @@
         <v>63</v>
       </c>
       <c r="B492" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>9</v>
@@ -13169,7 +13169,7 @@
         <v>63</v>
       </c>
       <c r="B493" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>9</v>
@@ -13180,7 +13180,7 @@
         <v>63</v>
       </c>
       <c r="B494" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
@@ -13191,7 +13191,7 @@
         <v>63</v>
       </c>
       <c r="B495" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>9</v>
@@ -13202,31 +13202,31 @@
         <v>63</v>
       </c>
       <c r="B496" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="2">
-        <v>63</v>
-      </c>
-      <c r="B497" s="2">
-        <v>66</v>
-      </c>
-      <c r="C497" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B498" s="2">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2">
+        <v>65</v>
+      </c>
+      <c r="B499" s="2">
+        <v>16</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13235,7 +13235,7 @@
         <v>65</v>
       </c>
       <c r="B500" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
@@ -13246,7 +13246,7 @@
         <v>65</v>
       </c>
       <c r="B501" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
@@ -13257,7 +13257,7 @@
         <v>65</v>
       </c>
       <c r="B502" s="2">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
@@ -13268,7 +13268,7 @@
         <v>65</v>
       </c>
       <c r="B503" s="2">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>9</v>
@@ -13279,31 +13279,31 @@
         <v>65</v>
       </c>
       <c r="B504" s="2">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="2">
-        <v>65</v>
-      </c>
-      <c r="B505" s="2">
-        <v>297</v>
-      </c>
-      <c r="C505" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B506" s="2">
-        <v>424</v>
+        <v>119</v>
       </c>
       <c r="C506" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2">
+        <v>76</v>
+      </c>
+      <c r="B507" s="2">
+        <v>131</v>
+      </c>
+      <c r="C507" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13312,7 +13312,7 @@
         <v>76</v>
       </c>
       <c r="B508" s="2">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
@@ -13323,7 +13323,7 @@
         <v>76</v>
       </c>
       <c r="B509" s="2">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
@@ -13334,7 +13334,7 @@
         <v>76</v>
       </c>
       <c r="B510" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>9</v>
@@ -13345,7 +13345,7 @@
         <v>76</v>
       </c>
       <c r="B511" s="2">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>9</v>
@@ -13356,7 +13356,7 @@
         <v>76</v>
       </c>
       <c r="B512" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
@@ -13367,31 +13367,31 @@
         <v>76</v>
       </c>
       <c r="B513" s="2">
-        <v>244</v>
+        <v>539</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="2">
-        <v>76</v>
-      </c>
-      <c r="B514" s="2">
-        <v>429</v>
-      </c>
-      <c r="C514" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B515" s="2">
-        <v>530</v>
+        <v>20</v>
       </c>
       <c r="C515" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2">
+        <v>77</v>
+      </c>
+      <c r="B516" s="2">
+        <v>21</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13400,7 +13400,7 @@
         <v>77</v>
       </c>
       <c r="B517" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>77</v>
       </c>
       <c r="B518" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="B519" s="2">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
@@ -13433,7 +13433,7 @@
         <v>77</v>
       </c>
       <c r="B520" s="2">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>77</v>
       </c>
       <c r="B521" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>9</v>
@@ -13455,31 +13455,31 @@
         <v>77</v>
       </c>
       <c r="B522" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="2">
-        <v>77</v>
-      </c>
-      <c r="B523" s="2">
-        <v>220</v>
-      </c>
-      <c r="C523" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B524" s="2">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2">
+        <v>78</v>
+      </c>
+      <c r="B525" s="2">
+        <v>37</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
         <v>78</v>
       </c>
       <c r="B526" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
@@ -13499,7 +13499,7 @@
         <v>78</v>
       </c>
       <c r="B527" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>9</v>
@@ -13510,7 +13510,7 @@
         <v>78</v>
       </c>
       <c r="B528" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>78</v>
       </c>
       <c r="B529" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>9</v>
@@ -13532,31 +13532,31 @@
         <v>78</v>
       </c>
       <c r="B530" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="2">
-        <v>78</v>
-      </c>
-      <c r="B531" s="2">
-        <v>48</v>
-      </c>
-      <c r="C531" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B532" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C532" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2">
+        <v>80</v>
+      </c>
+      <c r="B533" s="2">
+        <v>7</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
         <v>80</v>
       </c>
       <c r="B534" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>9</v>
@@ -13576,7 +13576,7 @@
         <v>80</v>
       </c>
       <c r="B535" s="2">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>9</v>
@@ -13587,7 +13587,7 @@
         <v>80</v>
       </c>
       <c r="B536" s="2">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>9</v>
@@ -13598,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="B537" s="2">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>9</v>
@@ -13609,20 +13609,20 @@
         <v>80</v>
       </c>
       <c r="B538" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
-      <c r="A539" s="2">
-        <v>80</v>
-      </c>
-      <c r="B539" s="2">
-        <v>307</v>
-      </c>
-      <c r="C539" s="2" t="s">
+    <row r="540" spans="1:3">
+      <c r="A540" s="2">
+        <v>91</v>
+      </c>
+      <c r="B540" s="2">
+        <v>35</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
         <v>91</v>
       </c>
       <c r="B541" s="2">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>9</v>
@@ -13642,7 +13642,7 @@
         <v>91</v>
       </c>
       <c r="B542" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>9</v>
@@ -13653,7 +13653,7 @@
         <v>91</v>
       </c>
       <c r="B543" s="2">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>9</v>
@@ -13664,7 +13664,7 @@
         <v>91</v>
       </c>
       <c r="B544" s="2">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>9</v>
@@ -13675,7 +13675,7 @@
         <v>91</v>
       </c>
       <c r="B545" s="2">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>9</v>
@@ -13686,7 +13686,7 @@
         <v>91</v>
       </c>
       <c r="B546" s="2">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>91</v>
       </c>
       <c r="B547" s="2">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>91</v>
       </c>
       <c r="B548" s="2">
-        <v>539</v>
+        <v>178</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>9</v>
@@ -13719,7 +13719,7 @@
         <v>91</v>
       </c>
       <c r="B549" s="2">
-        <v>540</v>
+        <v>229</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>9</v>
@@ -13730,7 +13730,7 @@
         <v>92</v>
       </c>
       <c r="B551" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>9</v>
@@ -13741,7 +13741,7 @@
         <v>92</v>
       </c>
       <c r="B552" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>9</v>
@@ -13752,7 +13752,7 @@
         <v>92</v>
       </c>
       <c r="B553" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>9</v>
@@ -13763,7 +13763,7 @@
         <v>92</v>
       </c>
       <c r="B554" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>9</v>
@@ -13774,7 +13774,7 @@
         <v>92</v>
       </c>
       <c r="B555" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>9</v>
@@ -13785,7 +13785,7 @@
         <v>92</v>
       </c>
       <c r="B556" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>9</v>
@@ -13796,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="B557" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>9</v>
@@ -13807,7 +13807,7 @@
         <v>92</v>
       </c>
       <c r="B558" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>9</v>
